--- a/scales.xlsx
+++ b/scales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD5126-A134-4164-BE50-D4450AD401B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5A89E-9BFF-45E2-9A53-199915A6EA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Motrice</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Ouverture à l'expérience/Fermeture à l'expérience</t>
+  </si>
+  <si>
+    <t>sub-04AM</t>
+  </si>
+  <si>
+    <t>TR (rft)</t>
   </si>
 </sst>
 </file>
@@ -139,12 +145,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,8 +171,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012EDC3-90BA-420E-8C93-D3C748D2357F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +514,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -515,7 +539,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -533,6 +557,33 @@
       <c r="E3">
         <f>SUM(B3:D3)</f>
         <v>59</v>
+      </c>
+      <c r="G3">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <f>2+3+3+2+2+2+3+1+4+3+2</f>
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <f>2+3+2+2+4+2+3+2+2+3+2</f>
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <f>3+2+1+4+3+1+1+1+1+1+2+3</f>
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <f>SUM(B4:D4)</f>
+        <v>77</v>
+      </c>
+      <c r="G4">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -542,10 +593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,6 +624,15 @@
         <v>121</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <f>3+6+2+2+4+2+6+4+5+4+3+3+5+3+7+2+4+5+2+6+5+2+4+4+2+5+6+1</f>
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -580,300 +640,400 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6328125" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <f>21/88</f>
         <v>0.23863636363636365</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <f>33/88</f>
         <v>0.375</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <f>74/88</f>
         <v>0.84090909090909094</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>74/88</f>
         <v>0.84090909090909094</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f>31/88</f>
         <v>0.35227272727272729</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <f>26/88</f>
         <v>0.29545454545454547</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <f>56/88</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <f>75/88</f>
         <v>0.85227272727272729</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <f>20/88</f>
         <v>0.22727272727272727</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <f>11/88</f>
         <v>0.125</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <f>75/88</f>
         <v>0.85227272727272729</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <f>74/88</f>
         <v>0.84090909090909094</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <f>68/88</f>
         <v>0.77272727272727271</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <f>9/88</f>
         <v>0.10227272727272728</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <f>22/88</f>
         <v>0.25</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <f>78/88</f>
         <v>0.88636363636363635</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <f>19/88</f>
         <v>0.21590909090909091</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <f>74/88</f>
         <v>0.84090909090909094</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <f>11/88</f>
         <v>0.125</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <f>76/88</f>
         <v>0.86363636363636365</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
         <f>19/88</f>
         <v>0.21590909090909091</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <f>47/88</f>
         <v>0.53409090909090906</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <f>61/88</f>
         <v>0.69318181818181823</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <f>39/88</f>
         <v>0.44318181818181818</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <f>38/88</f>
         <v>0.43181818181818182</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f>79/88</f>
         <v>0.89772727272727271</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f>65/88</f>
         <v>0.73863636363636365</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <f>75/88</f>
         <v>0.85227272727272729</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <f>20/88</f>
         <v>0.22727272727272727</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <f>46/88</f>
         <v>0.52272727272727271</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <f>69/88</f>
         <v>0.78409090909090906</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <f>22/88</f>
         <v>0.25</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <f>21/88</f>
         <v>0.23863636363636365</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <f>33/88</f>
         <v>0.375</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <f>63/88</f>
         <v>0.71590909090909094</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <f>38/88</f>
         <v>0.43181818181818182</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <f>35/88</f>
         <v>0.39772727272727271</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <f>43/88</f>
         <v>0.48863636363636365</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <f>18/88</f>
         <v>0.20454545454545456</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <f>36/88</f>
         <v>0.40909090909090912</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <f>8/88</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <f>8/88</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <f>27/88</f>
         <v>0.30681818181818182</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="3">
         <f>25/88</f>
         <v>0.28409090909090912</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <f>57/88</f>
         <v>0.64772727272727271</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="3">
         <f>5/88</f>
         <v>5.6818181818181816E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3">
+        <f>1.6/88</f>
+        <v>1.8181818181818184E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <f>0.2/88</f>
+        <v>2.2727272727272731E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <f>2.9/88</f>
+        <v>3.2954545454545452E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <f>7.6/88</f>
+        <v>8.6363636363636365E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <f>7.6/88</f>
+        <v>8.6363636363636365E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <f>3.2/88</f>
+        <v>3.6363636363636369E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <f>4.6/88</f>
+        <v>5.2272727272727269E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <f>4.6/88</f>
+        <v>5.2272727272727269E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <f>4.7/88</f>
+        <v>5.3409090909090913E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <f>7.3/88</f>
+        <v>8.2954545454545447E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <f>6.7/88</f>
+        <v>7.6136363636363641E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <f>6.8/88</f>
+        <v>7.7272727272727271E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <f>2.5/88</f>
+        <v>2.8409090909090908E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <f>2.9/88</f>
+        <v>3.2954545454545452E-2</v>
+      </c>
+      <c r="P4" s="3">
+        <f>3.7/88</f>
+        <v>4.2045454545454546E-2</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>3/88</f>
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="R4" s="3">
+        <f>8.5/88</f>
+        <v>9.6590909090909088E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <f>4.4/88</f>
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="3">
+        <f>4.5/88</f>
+        <v>5.113636363636364E-2</v>
+      </c>
+      <c r="U4" s="3">
+        <f>8.3/88</f>
+        <v>9.4318181818181829E-2</v>
+      </c>
+      <c r="V4" s="3">
+        <f>5.4/88</f>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="W4" s="3">
+        <f>7.8/88</f>
+        <v>8.8636363636363638E-2</v>
+      </c>
+      <c r="X4" s="3">
+        <f>1.3/88</f>
+        <v>1.4772727272727272E-2</v>
       </c>
     </row>
   </sheetData>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5A89E-9BFF-45E2-9A53-199915A6EA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47FBB97-04F8-4AD8-AC27-78C7B448F1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Motrice</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>TR (rft)</t>
+  </si>
+  <si>
+    <t>Temps clique (GNG)</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -182,6 +185,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012EDC3-90BA-420E-8C93-D3C748D2357F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +521,11 @@
       <c r="G1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -538,8 +545,11 @@
         <f>SUM(B2:D2)</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="4">
+        <v>0.83214285714285696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -562,7 +572,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -642,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47FBB97-04F8-4AD8-AC27-78C7B448F1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B953C4-AE93-4370-958E-93D75BF685BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Motrice</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Temps clique (GNG)</t>
+  </si>
+  <si>
+    <t>TR (reaction time)</t>
+  </si>
+  <si>
+    <t>Vmax (reaction time)</t>
   </si>
 </sst>
 </file>
@@ -500,15 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012EDC3-90BA-420E-8C93-D3C748D2357F}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +530,14 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -545,11 +557,17 @@
         <f>SUM(B2:D2)</f>
         <v>69</v>
       </c>
+      <c r="G2">
+        <v>0.62</v>
+      </c>
       <c r="H2" s="4">
         <v>0.83214285714285696</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="4">
+        <v>0.43059999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -571,8 +589,17 @@
       <c r="G3">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H3" s="4">
+        <v>0.80632183908045885</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.48470000000000002</v>
+      </c>
+      <c r="J3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -592,8 +619,17 @@
         <f>SUM(B4:D4)</f>
         <v>77</v>
       </c>
-      <c r="G4">
-        <v>0.31</v>
+      <c r="G4" s="4">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.65344827586206855</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.36430000000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1244</v>
       </c>
     </row>
   </sheetData>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B953C4-AE93-4370-958E-93D75BF685BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C0999F-9376-4D17-A270-BA2B35C15401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>Motrice</t>
   </si>
@@ -139,13 +139,87 @@
   </si>
   <si>
     <t>Vmax (reaction time)</t>
+  </si>
+  <si>
+    <t>sub-28AP</t>
+  </si>
+  <si>
+    <t>sub-38LB</t>
+  </si>
+  <si>
+    <t>sub-25BG</t>
+  </si>
+  <si>
+    <t>sub-35AF</t>
+  </si>
+  <si>
+    <t>sub-27TT</t>
+  </si>
+  <si>
+    <t>sub-12CB</t>
+  </si>
+  <si>
+    <t>sub-11VP</t>
+  </si>
+  <si>
+    <t>sub-45LG</t>
+  </si>
+  <si>
+    <t>sub-26CR</t>
+  </si>
+  <si>
+    <t>sub-32EE</t>
+  </si>
+  <si>
+    <t>sub-31LB</t>
+  </si>
+  <si>
+    <t>sub-43GM</t>
+  </si>
+  <si>
+    <t>sub-15AV</t>
+  </si>
+  <si>
+    <t>sub-24CG</t>
+  </si>
+  <si>
+    <t>sub-14LG</t>
+  </si>
+  <si>
+    <t>sub-03CT</t>
+  </si>
+  <si>
+    <t>sub-23TJ</t>
+  </si>
+  <si>
+    <t>sub-20EP</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>VMN</t>
+  </si>
+  <si>
+    <t>TPVN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +241,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,11 +256,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -192,8 +284,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,15 +604,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012EDC3-90BA-420E-8C93-D3C748D2357F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -524,112 +622,457 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
       <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <f>3+1+3+3+1+3+4+1+1+0+1</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <f>3+0+1+3+4+1+1+3+3+0+4</f>
-        <v>23</v>
+        <f>3+4+4+4+0+1+1+0+1+4+0</f>
+        <v>22</v>
       </c>
       <c r="D2">
-        <f>4+0+0+3+3+3+3+0+0+3+3+3</f>
-        <v>25</v>
+        <f>3+0+3+1+3+4+0+1+3+0+3+1</f>
+        <v>22</v>
       </c>
       <c r="E2">
         <f>SUM(B2:D2)</f>
-        <v>69</v>
-      </c>
-      <c r="G2">
-        <v>0.62</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.83214285714285696</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.43059999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>808.85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <f>2+3+3+2+2+2+3+1+4+3+2</f>
+        <v>27</v>
       </c>
       <c r="C3">
-        <f>3+4+4+4+0+1+1+0+1+4+0</f>
-        <v>22</v>
+        <f>2+3+2+2+4+2+3+2+2+3+2</f>
+        <v>27</v>
       </c>
       <c r="D3">
-        <f>3+0+3+1+3+4+0+1+3+0+3+1</f>
-        <v>22</v>
+        <f>3+2+1+4+3+1+1+1+1+1+2+3</f>
+        <v>23</v>
       </c>
       <c r="E3">
         <f>SUM(B3:D3)</f>
-        <v>59</v>
-      </c>
-      <c r="G3">
+        <v>77</v>
+      </c>
+      <c r="F3">
+        <v>1244.5</v>
+      </c>
+      <c r="O3">
         <v>0.46</v>
       </c>
-      <c r="H3" s="4">
+      <c r="P3" s="4">
         <v>0.80632183908045885</v>
       </c>
-      <c r="I3" s="4">
+      <c r="Q3" s="4">
         <v>0.48470000000000002</v>
       </c>
-      <c r="J3">
+      <c r="R3">
         <v>808</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <f>2+3+3+2+2+2+3+1+4+3+2</f>
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>1127.92</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.65344827586206855</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.36430000000000001</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>1250.0999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>1411.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>1266.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>641.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
         <v>27</v>
       </c>
-      <c r="C4">
-        <f>2+3+2+2+4+2+3+2+2+3+2</f>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <v>1012.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>952.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
         <v>27</v>
       </c>
-      <c r="D4">
-        <f>3+2+1+4+3+1+1+1+1+1+2+3</f>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>1276.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>71</v>
+      </c>
+      <c r="F12">
+        <v>1183.1199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>771.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>939.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <v>1333.71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>1129.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
         <v>23</v>
       </c>
-      <c r="E4">
-        <f>SUM(B4:D4)</f>
-        <v>77</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.65344827586206855</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.36430000000000001</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1244</v>
+      <c r="E17">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>440.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>724.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>555.07000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>51</v>
+      </c>
+      <c r="F20">
+        <v>1627.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>1264.3399999999999</v>
       </c>
     </row>
   </sheetData>
@@ -639,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,6 +1122,150 @@
         <v>107</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -686,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,6 +1669,1888 @@
         <v>1.4772727272727272E-2</v>
       </c>
     </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="R11" s="7">
+        <v>1</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="X11" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R14" s="8">
+        <v>1</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="X15" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="7">
+        <v>1</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="P20" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="R20" s="8">
+        <v>1</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="W20" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="X21" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="R22" s="8">
+        <v>1</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="X22" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{10C0999F-9376-4D17-A270-BA2B35C15401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EFE735C-6DF0-4F4C-AEC1-CFC386A21994}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4639630-5006-4DCC-ADE6-E88728D09392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -482,7 +482,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -684,7 +684,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="862478848"/>
@@ -732,7 +732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="922025712"/>
@@ -780,7 +780,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -856,7 +856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1113,7 +1113,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062225856"/>
@@ -1161,7 +1161,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062230016"/>
@@ -1209,7 +1209,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1285,7 +1285,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1390,7 +1390,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1592,7 +1592,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026527008"/>
@@ -1640,7 +1640,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026522016"/>
@@ -1688,7 +1688,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1764,7 +1764,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2021,7 +2021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004969120"/>
@@ -2069,7 +2069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004968704"/>
@@ -2117,7 +2117,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2193,7 +2193,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2450,7 +2450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073921712"/>
@@ -2498,7 +2498,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073925040"/>
@@ -2546,7 +2546,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2622,7 +2622,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2879,7 +2879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064199248"/>
@@ -2927,7 +2927,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064195920"/>
@@ -2975,7 +2975,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3051,7 +3051,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3308,7 +3308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141333232"/>
@@ -3356,7 +3356,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141327408"/>
@@ -3404,7 +3404,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3480,7 +3480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3737,7 +3737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064215056"/>
@@ -3785,7 +3785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064202160"/>
@@ -3833,7 +3833,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3909,7 +3909,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4000,7 +4000,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4202,7 +4202,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177714016"/>
@@ -4250,7 +4250,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177713600"/>
@@ -4298,7 +4298,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4382,7 +4382,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4625,7 +4625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224624"/>
@@ -4673,7 +4673,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224208"/>
@@ -4721,7 +4721,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4797,7 +4797,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5054,7 +5054,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005201104"/>
@@ -5102,7 +5102,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005200688"/>
@@ -5150,7 +5150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5226,7 +5226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5334,7 +5334,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5536,7 +5536,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868185120"/>
@@ -5584,7 +5584,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868184288"/>
@@ -5632,7 +5632,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5716,7 +5716,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5973,7 +5973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172488432"/>
@@ -6021,7 +6021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172490096"/>
@@ -6069,7 +6069,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6145,7 +6145,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6236,7 +6236,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6438,7 +6438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935838816"/>
@@ -6486,7 +6486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935818848"/>
@@ -6534,7 +6534,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6610,7 +6610,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6867,7 +6867,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269003376"/>
@@ -6915,7 +6915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268997968"/>
@@ -6963,7 +6963,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7047,7 +7047,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7138,7 +7138,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7340,7 +7340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177709440"/>
@@ -7388,7 +7388,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177690720"/>
@@ -7436,7 +7436,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7512,7 +7512,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7617,7 +7617,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7819,7 +7819,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076065200"/>
@@ -7867,7 +7867,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076060624"/>
@@ -7915,7 +7915,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7991,7 +7991,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8248,7 +8248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107543424"/>
@@ -8296,7 +8296,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107533440"/>
@@ -8344,7 +8344,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8420,7 +8420,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8677,7 +8677,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935840064"/>
@@ -8725,7 +8725,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935837152"/>
@@ -8773,7 +8773,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8857,7 +8857,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8948,7 +8948,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9150,7 +9150,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172069744"/>
@@ -9198,7 +9198,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172048944"/>
@@ -9246,7 +9246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9322,7 +9322,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9416,7 +9416,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9618,7 +9618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528694832"/>
@@ -9666,7 +9666,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528696496"/>
@@ -9714,7 +9714,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9790,7 +9790,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9884,7 +9884,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10086,7 +10086,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873249360"/>
@@ -10134,7 +10134,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873251440"/>
@@ -10182,7 +10182,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10258,7 +10258,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10352,7 +10352,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10555,7 +10555,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026464208"/>
@@ -10603,7 +10603,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026466704"/>
@@ -10651,7 +10651,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10727,7 +10727,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10832,7 +10832,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11034,7 +11034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005130992"/>
@@ -11082,7 +11082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005131408"/>
@@ -11130,7 +11130,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11206,7 +11206,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11311,7 +11311,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11513,7 +11513,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1037082720"/>
@@ -11561,7 +11561,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870201088"/>
@@ -11609,7 +11609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11685,7 +11685,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11790,7 +11790,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11992,7 +11992,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064219632"/>
@@ -12040,7 +12040,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064209232"/>
@@ -12088,7 +12088,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12164,7 +12164,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12269,7 +12269,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12471,7 +12471,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928867152"/>
@@ -12519,7 +12519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928866320"/>
@@ -12567,7 +12567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -29355,8 +29355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29601,7 +29601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4639630-5006-4DCC-ADE6-E88728D09392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6A3CEB-3D6E-4D47-80A4-707FB133870C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="-7560" yWindow="4180" windowWidth="13700" windowHeight="7810" firstSheet="1" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>Motrice</t>
   </si>
@@ -200,6 +200,33 @@
   <si>
     <t>TPVN</t>
   </si>
+  <si>
+    <t>sub-44TH</t>
+  </si>
+  <si>
+    <t>sub-37NC</t>
+  </si>
+  <si>
+    <t>sub-41SM</t>
+  </si>
+  <si>
+    <t>sub-30AC</t>
+  </si>
+  <si>
+    <t>sub-40BK</t>
+  </si>
+  <si>
+    <t>sub-02PC</t>
+  </si>
+  <si>
+    <t>dist(pred-reel)</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>CV estimatoin temps</t>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +269,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,12 +337,32 @@
     <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -374,7 +445,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -482,17 +553,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'BIS-10'!$B$2:$B$21</c:f>
+              <c:f>'BIS-10'!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -552,16 +623,34 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BIS-10'!$F$2:$F$21</c:f>
+              <c:f>'BIS-10'!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -621,6 +710,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,7 +791,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="862478848"/>
@@ -732,7 +839,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="922025712"/>
@@ -780,7 +887,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -856,7 +963,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -918,10 +1025,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$F$2:$F$21</c:f>
+              <c:f>Perso!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.85227272727272729</c:v>
                 </c:pt>
@@ -981,16 +1088,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -1050,6 +1175,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,7 +1256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062225856"/>
@@ -1161,7 +1304,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062230016"/>
@@ -1209,7 +1352,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1285,7 +1428,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1390,7 +1533,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1592,7 +1735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026527008"/>
@@ -1640,7 +1783,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026522016"/>
@@ -1688,7 +1831,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1764,7 +1907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1826,10 +1969,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$I$2:$I$21</c:f>
+              <c:f>Perso!$I$2:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.78409090909090906</c:v>
                 </c:pt>
@@ -1889,16 +2032,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -1958,6 +2119,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,7 +2200,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004969120"/>
@@ -2069,7 +2248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004968704"/>
@@ -2117,7 +2296,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2193,7 +2372,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2255,10 +2434,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$J$2:$J$21</c:f>
+              <c:f>Perso!$J$2:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -2318,16 +2497,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -2387,6 +2584,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2450,7 +2665,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073921712"/>
@@ -2498,7 +2713,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073925040"/>
@@ -2546,7 +2761,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2622,7 +2837,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2684,10 +2899,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$K$2:$K$21</c:f>
+              <c:f>Perso!$K$2:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.23863636363636365</c:v>
                 </c:pt>
@@ -2747,16 +2962,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -2816,6 +3049,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,7 +3130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064199248"/>
@@ -2927,7 +3178,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064195920"/>
@@ -2975,7 +3226,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3051,7 +3302,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3113,10 +3364,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$L$2:$L$21</c:f>
+              <c:f>Perso!$L$2:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.375</c:v>
                 </c:pt>
@@ -3176,16 +3427,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -3245,6 +3514,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,7 +3595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141333232"/>
@@ -3356,7 +3643,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141327408"/>
@@ -3404,7 +3691,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3480,7 +3767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3542,10 +3829,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$M$2:$M$21</c:f>
+              <c:f>Perso!$M$2:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.71590909090909094</c:v>
                 </c:pt>
@@ -3605,16 +3892,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -3674,6 +3979,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3737,7 +4060,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064215056"/>
@@ -3785,7 +4108,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064202160"/>
@@ -3833,7 +4156,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3909,7 +4232,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4000,17 +4323,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$N$2:$N$21</c:f>
+              <c:f>Perso!$N$2:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.43181818181818182</c:v>
                 </c:pt>
@@ -4070,16 +4393,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -4139,6 +4480,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4202,7 +4561,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177714016"/>
@@ -4250,7 +4609,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177713600"/>
@@ -4298,7 +4657,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4382,7 +4741,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4430,10 +4789,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$O$2:$O$21</c:f>
+              <c:f>Perso!$O$2:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.39772727272727271</c:v>
                 </c:pt>
@@ -4493,16 +4852,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -4562,6 +4939,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4625,7 +5020,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224624"/>
@@ -4673,7 +5068,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224208"/>
@@ -4721,7 +5116,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4797,7 +5192,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4859,10 +5254,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$P$2:$P$21</c:f>
+              <c:f>Perso!$P$2:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.48863636363636365</c:v>
                 </c:pt>
@@ -4922,16 +5317,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -4991,6 +5404,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5054,7 +5485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005201104"/>
@@ -5102,7 +5533,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005200688"/>
@@ -5150,7 +5581,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5226,7 +5657,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5334,17 +5765,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'BIS-10'!$E$2:$E$21</c:f>
+              <c:f>'BIS-10'!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
                 </c:pt>
@@ -5404,16 +5835,34 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BIS-10'!$F$2:$F$21</c:f>
+              <c:f>'BIS-10'!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -5473,6 +5922,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5536,7 +6003,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868185120"/>
@@ -5584,7 +6051,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868184288"/>
@@ -5632,7 +6099,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5716,7 +6183,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5778,10 +6245,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$Q$2:$Q$21</c:f>
+              <c:f>Perso!$Q$2:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.20454545454545456</c:v>
                 </c:pt>
@@ -5841,16 +6308,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -5910,6 +6395,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5973,7 +6476,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172488432"/>
@@ -6021,7 +6524,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172490096"/>
@@ -6069,7 +6572,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6145,7 +6648,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6236,17 +6739,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$R$2:$R$21</c:f>
+              <c:f>Perso!$R$2:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.40909090909090912</c:v>
                 </c:pt>
@@ -6306,16 +6809,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -6375,6 +6896,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6438,7 +6977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935838816"/>
@@ -6486,7 +7025,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935818848"/>
@@ -6534,7 +7073,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6610,7 +7149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6672,10 +7211,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$S$2:$S$21</c:f>
+              <c:f>Perso!$S$2:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
@@ -6735,16 +7274,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -6804,6 +7361,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6867,7 +7442,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269003376"/>
@@ -6915,7 +7490,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268997968"/>
@@ -6963,7 +7538,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7047,7 +7622,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7138,17 +7713,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$T$2:$T$21</c:f>
+              <c:f>Perso!$T$2:$T$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
@@ -7208,16 +7783,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -7277,6 +7870,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7340,7 +7951,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177709440"/>
@@ -7388,7 +7999,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177690720"/>
@@ -7436,7 +8047,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7512,7 +8123,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7617,17 +8228,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$U$2:$U$21</c:f>
+              <c:f>Perso!$U$2:$U$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.30681818181818182</c:v>
                 </c:pt>
@@ -7687,16 +8298,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -7756,6 +8385,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7819,7 +8466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076065200"/>
@@ -7867,7 +8514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076060624"/>
@@ -7915,7 +8562,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7991,7 +8638,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8053,10 +8700,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$V$2:$V$21</c:f>
+              <c:f>Perso!$V$2:$V$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.28409090909090912</c:v>
                 </c:pt>
@@ -8116,16 +8763,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -8185,6 +8850,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8248,7 +8931,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107543424"/>
@@ -8296,7 +8979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107533440"/>
@@ -8344,7 +9027,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8420,7 +9103,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8482,10 +9165,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$W$2:$W$21</c:f>
+              <c:f>Perso!$W$2:$W$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.64772727272727271</c:v>
                 </c:pt>
@@ -8545,16 +9228,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -8614,6 +9315,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8677,7 +9396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935840064"/>
@@ -8725,7 +9444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935837152"/>
@@ -8773,7 +9492,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8857,7 +9576,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8948,17 +9667,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$X$2:$X$21</c:f>
+              <c:f>Perso!$X$2:$X$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>5.6818181818181816E-2</c:v>
                 </c:pt>
@@ -9017,6 +9736,24 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
                   <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -9024,10 +9761,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -9087,6 +9824,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9150,7 +9905,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172069744"/>
@@ -9198,7 +9953,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172048944"/>
@@ -9246,7 +10001,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9322,7 +10077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9416,17 +10171,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'BIS-10'!$C$2:$C$21</c:f>
+              <c:f>'BIS-10'!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -9486,16 +10241,34 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BIS-10'!$F$2:$F$21</c:f>
+              <c:f>'BIS-10'!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -9555,6 +10328,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9618,7 +10409,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528694832"/>
@@ -9666,7 +10457,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528696496"/>
@@ -9714,7 +10505,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9790,7 +10581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9884,17 +10675,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'BIS-10'!$D$2:$D$21</c:f>
+              <c:f>'BIS-10'!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -9954,16 +10745,34 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BIS-10'!$F$2:$F$21</c:f>
+              <c:f>'BIS-10'!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -10023,6 +10832,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10086,7 +10913,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873249360"/>
@@ -10134,7 +10961,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873251440"/>
@@ -10182,7 +11009,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10258,7 +11085,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10293,6 +11120,102 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-296F-40CD-A4B9-4ED4F606791C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-296F-40CD-A4B9-4ED4F606791C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-296F-40CD-A4B9-4ED4F606791C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-296F-40CD-A4B9-4ED4F606791C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -10352,17 +11275,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$B$2:$B$21</c:f>
+              <c:f>BPS!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>121</c:v>
                 </c:pt>
@@ -10422,16 +11345,34 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$C$2:$C$21</c:f>
+              <c:f>BPS!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -10491,6 +11432,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10555,7 +11514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026464208"/>
@@ -10603,7 +11562,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026466704"/>
@@ -10651,7 +11610,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10727,7 +11686,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10832,17 +11791,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$C$2:$C$21</c:f>
+              <c:f>Perso!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.43181818181818182</c:v>
                 </c:pt>
@@ -10902,16 +11861,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -10971,6 +11948,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11034,7 +12029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005130992"/>
@@ -11082,7 +12077,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005131408"/>
@@ -11130,7 +12125,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11206,7 +12201,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11311,17 +12306,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$B$2:$B$21</c:f>
+              <c:f>Perso!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.44318181818181818</c:v>
                 </c:pt>
@@ -11381,16 +12376,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -11450,6 +12463,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11513,7 +12544,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1037082720"/>
@@ -11561,7 +12592,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870201088"/>
@@ -11609,7 +12640,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11685,7 +12716,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11790,17 +12821,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$D$2:$D$21</c:f>
+              <c:f>Perso!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.89772727272727271</c:v>
                 </c:pt>
@@ -11860,16 +12891,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -11929,6 +12978,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11992,7 +13059,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064219632"/>
@@ -12040,7 +13107,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064209232"/>
@@ -12088,7 +13155,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12164,7 +13231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12269,17 +13336,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$G$2:$G$21</c:f>
+              <c:f>Perso!$G$2:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.22727272727272727</c:v>
                 </c:pt>
@@ -12339,16 +13406,34 @@
                 </c:pt>
                 <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$21</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
                 </c:pt>
@@ -12408,6 +13493,24 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12471,7 +13574,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928867152"/>
@@ -12519,7 +13622,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928866320"/>
@@ -12567,7 +13670,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -27743,16 +28846,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>240393</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175078</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>669636</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>240393</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15421</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27785,14 +28888,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>801688</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>896938</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>65088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1246188</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:colOff>1341438</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>141288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27821,15 +28924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>131476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:colOff>542637</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22948</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27856,15 +28959,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1468438</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>173038</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27893,14 +28996,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>769938</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>865188</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>627063</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:colOff>722313</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>173038</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27929,14 +29032,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>674688</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>769938</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>325438</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>420688</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>77788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27965,15 +29068,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>992188</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1588</xdr:rowOff>
+      <xdr:colOff>1098984</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>436563</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>77788</xdr:rowOff>
+      <xdr:colOff>543359</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>100879</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28002,14 +29105,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>103188</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>611188</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>173038</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28037,14 +29140,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>55563</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>150813</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>160338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1452563</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>1547813</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>46038</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28073,14 +29176,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>103188</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>198438</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>563563</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>658813</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28109,14 +29212,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>849313</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>944563</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>173038</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28145,14 +29248,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>928688</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>65088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>690563</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>785813</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>141288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28181,14 +29284,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1135063</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>1230313</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>579438</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>674688</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28218,14 +29321,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>246063</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>144463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>754063</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>30163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28252,15 +29355,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>881063</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>65088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1325563</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>1420813</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>141288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28289,14 +29392,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1357313</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:colOff>1452563</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>246063</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>341313</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>77788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28325,14 +29428,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>611188</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:colOff>706438</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>173038</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28361,14 +29464,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>754063</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:colOff>849313</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>65088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>611188</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>706438</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>141288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28397,14 +29500,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1008063</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:colOff>1103313</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>144463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>30163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28433,14 +29536,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1309688</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:colOff>1404938</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>198438</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:colOff>293688</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28469,14 +29572,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>563563</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:colOff>658813</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28505,14 +29608,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>515938</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:colOff>611188</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>65088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>373063</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:colOff>468313</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>141288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28541,14 +29644,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>928688</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:colOff>1023938</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>373063</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:colOff>468313</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28575,6 +29678,26 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:I27" totalsRowShown="0">
+  <autoFilter ref="A1:I27" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6453D9EA-F9CB-471D-8404-471B3F332756}" name="score"/>
+    <tableColumn id="3" xr3:uid="{AA2EF9DD-2192-48E0-8BEC-D975F28D10E6}" name="VMN"/>
+    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)">
+      <calculatedColumnFormula>ABS(C2-(5.1316*B2+473.39))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E3E80936-5487-47DE-8A1C-072E65F3217E}" name="Motrice"/>
+    <tableColumn id="6" xr3:uid="{60EC1AFD-A5DD-42B0-B267-6B8055FFE065}" name="Cognitive"/>
+    <tableColumn id="7" xr3:uid="{2504FBF5-1DE9-4900-B1B6-9A8868D8DA0F}" name="Non-Planning"/>
+    <tableColumn id="8" xr3:uid="{7A6A7DCC-C251-4009-8219-F264A30590BC}" name="Total"/>
+    <tableColumn id="9" xr3:uid="{1E55E981-93E3-42B8-817F-85E69C732542}" name="CV estimatoin temps"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28874,13 +29997,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012EDC3-90BA-420E-8C93-D3C748D2357F}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F21"/>
+      <selection activeCell="E1" sqref="E1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -29343,6 +30469,126 @@
       </c>
       <c r="F21">
         <v>1264.3399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>68</v>
+      </c>
+      <c r="F22">
+        <v>1200.1400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>37</v>
+      </c>
+      <c r="F23">
+        <v>828.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
+      </c>
+      <c r="F24">
+        <v>1394.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>47</v>
+      </c>
+      <c r="F25">
+        <v>803.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>63</v>
+      </c>
+      <c r="F26">
+        <v>757.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>56</v>
+      </c>
+      <c r="F27">
+        <v>727.68</v>
       </c>
     </row>
   </sheetData>
@@ -29353,24 +30599,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>52</v>
       </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -29380,9 +30650,29 @@
       <c r="C2">
         <v>808.85</v>
       </c>
+      <c r="D2">
+        <f>ABS(C2-(5.1316*B2+473.39))</f>
+        <v>285.46359999999993</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <f>SUM(E2:G2)</f>
+        <v>59</v>
+      </c>
+      <c r="I2">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B3">
@@ -29392,8 +30682,25 @@
       <c r="C3">
         <v>1244.5</v>
       </c>
+      <c r="D3">
+        <f>ABS(C3-(5.1316*B3+473.39))</f>
+        <v>222.02880000000005</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <f>SUM(E3:G3)</f>
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -29403,8 +30710,24 @@
       <c r="C4">
         <v>1127.92</v>
       </c>
+      <c r="D4">
+        <f>ABS(C4-(5.1316*B4+473.39))</f>
+        <v>38.738000000000284</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -29414,8 +30737,24 @@
       <c r="C5">
         <v>1250.0999999999999</v>
       </c>
+      <c r="D5">
+        <f>ABS(C5-(5.1316*B5+473.39))</f>
+        <v>145.52320000000009</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>58</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -29425,8 +30764,24 @@
       <c r="C6">
         <v>1411.91</v>
       </c>
+      <c r="D6">
+        <f>ABS(C6-(5.1316*B6+473.39))</f>
+        <v>291.93840000000023</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>63</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -29436,8 +30791,24 @@
       <c r="C7">
         <v>1266.79</v>
       </c>
+      <c r="D7">
+        <f>ABS(C7-(5.1316*B7+473.39))</f>
+        <v>80.107600000000048</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>71</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -29447,8 +30818,24 @@
       <c r="C8">
         <v>641.14</v>
       </c>
+      <c r="D8">
+        <f>ABS(C8-(5.1316*B8+473.39))</f>
+        <v>299.22559999999999</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>51</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -29458,8 +30845,24 @@
       <c r="C9">
         <v>1012.32</v>
       </c>
+      <c r="D9">
+        <f>ABS(C9-(5.1316*B9+473.39))</f>
+        <v>123.04639999999984</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>73</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -29469,8 +30872,24 @@
       <c r="C10">
         <v>952.27</v>
       </c>
+      <c r="D10">
+        <f>ABS(C10-(5.1316*B10+473.39))</f>
+        <v>95.859199999999873</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>79</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -29480,8 +30899,24 @@
       <c r="C11">
         <v>1276.5</v>
       </c>
+      <c r="D11">
+        <f>ABS(C11-(5.1316*B11+473.39))</f>
+        <v>223.23919999999998</v>
+      </c>
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>58</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>41</v>
       </c>
@@ -29491,8 +30926,24 @@
       <c r="C12">
         <v>1183.1199999999999</v>
       </c>
+      <c r="D12">
+        <f>ABS(C12-(5.1316*B12+473.39))</f>
+        <v>129.85919999999987</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>71</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -29502,8 +30953,24 @@
       <c r="C13">
         <v>771.81</v>
       </c>
+      <c r="D13">
+        <f>ABS(C13-(5.1316*B13+473.39))</f>
+        <v>96.713200000000029</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>47</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
@@ -29513,8 +30980,24 @@
       <c r="C14">
         <v>939.92</v>
       </c>
+      <c r="D14">
+        <f>ABS(C14-(5.1316*B14+473.39))</f>
+        <v>10.708799999999997</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -29524,8 +31007,24 @@
       <c r="C15">
         <v>1333.71</v>
       </c>
+      <c r="D15">
+        <f>ABS(C15-(5.1316*B15+473.39))</f>
+        <v>157.29080000000022</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>54</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -29535,19 +31034,51 @@
       <c r="C16">
         <v>1129.94</v>
       </c>
+      <c r="D16">
+        <f>ABS(C16-(5.1316*B16+473.39))</f>
+        <v>184.44280000000003</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12">
         <v>119</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="12">
         <v>440.17</v>
       </c>
+      <c r="D17">
+        <f>ABS(C17-(5.1316*B17+473.39))</f>
+        <v>643.88040000000001</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+      <c r="H17" s="12">
+        <v>55</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -29557,30 +31088,78 @@
       <c r="C18">
         <v>724.29</v>
       </c>
+      <c r="D18">
+        <f>ABS(C18-(5.1316*B18+473.39))</f>
+        <v>344.36560000000009</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>36</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="14">
         <v>104</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="14">
         <v>555.07000000000005</v>
       </c>
+      <c r="D19">
+        <f>ABS(C19-(5.1316*B19+473.39))</f>
+        <v>452.00639999999987</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19" s="14">
+        <v>67</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="11">
         <v>96</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <v>1627.89</v>
       </c>
+      <c r="D20">
+        <f>ABS(C20-(5.1316*B20+473.39))</f>
+        <v>661.86640000000011</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20" s="11">
+        <v>51</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -29589,11 +31168,192 @@
       </c>
       <c r="C21">
         <v>1264.3399999999999</v>
+      </c>
+      <c r="D21">
+        <f>ABS(C21-(5.1316*B21+473.39))</f>
+        <v>216.21080000000006</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>132</v>
+      </c>
+      <c r="C22">
+        <v>1200.1400000000001</v>
+      </c>
+      <c r="D22">
+        <f>ABS(C22-(5.1316*B22+473.39))</f>
+        <v>49.378800000000183</v>
+      </c>
+      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>85</v>
+      </c>
+      <c r="C23">
+        <v>828.46</v>
+      </c>
+      <c r="D23">
+        <f>ABS(C23-(5.1316*B23+473.39))</f>
+        <v>81.115999999999985</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="13">
+        <v>104</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1394.13</v>
+      </c>
+      <c r="D24">
+        <f>ABS(C24-(5.1316*B24+473.39))</f>
+        <v>387.05360000000019</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>95</v>
+      </c>
+      <c r="C25">
+        <v>803.62</v>
+      </c>
+      <c r="D25">
+        <f>ABS(C25-(5.1316*B25+473.39))</f>
+        <v>157.27199999999993</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>104</v>
+      </c>
+      <c r="C26">
+        <v>757.59</v>
+      </c>
+      <c r="D26">
+        <f>ABS(C26-(5.1316*B26+473.39))</f>
+        <v>249.48639999999989</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="10">
+        <v>103</v>
+      </c>
+      <c r="C27">
+        <v>727.68</v>
+      </c>
+      <c r="D27" s="10">
+        <f>ABS(C27-(5.1316*B27+473.39))</f>
+        <v>274.26480000000004</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -29601,8 +31361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31293,130 +33053,467 @@
         <v>1264.3399999999999</v>
       </c>
     </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="X22" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Y22">
+        <v>1200.1400000000001</v>
+      </c>
+    </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
+      <c r="A23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y23">
+        <v>828.46</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V24" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="W24" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="X24" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Y24">
+        <v>1394.13</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
+      <c r="A25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y25">
+        <v>803.62</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
+      <c r="A26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="X26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Y26">
+        <v>757.59</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
+      <c r="A27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y27">
+        <v>727.68</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6A3CEB-3D6E-4D47-80A4-707FB133870C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5566B99F-2A55-4BB2-9793-32B45D191865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7560" yWindow="4180" windowWidth="13700" windowHeight="7810" firstSheet="1" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <t>Colonne1</t>
   </si>
   <si>
-    <t>CV estimatoin temps</t>
+    <t>VMNCV</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -342,12 +342,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -445,7 +449,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -553,7 +557,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -791,7 +795,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="862478848"/>
@@ -839,7 +843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="922025712"/>
@@ -887,7 +891,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -899,6 +903,521 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Anxieux détendu/ VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11410454943132109"/>
+                  <c:y val="0.34776939340915725"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$G$2:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.22727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6363636363636369E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1071-4AF3-BC62-572A634741B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="928866320"/>
+        <c:axId val="928867152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="928866320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928867152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="928867152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928866320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -963,7 +1482,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1256,7 +1775,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062225856"/>
@@ -1304,7 +1823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062230016"/>
@@ -1352,7 +1871,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1363,7 +1882,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1428,7 +1947,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1533,7 +2052,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1735,7 +2254,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026527008"/>
@@ -1783,7 +2302,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026522016"/>
@@ -1831,7 +2350,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1842,7 +2361,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1907,7 +2426,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2200,7 +2719,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004969120"/>
@@ -2248,7 +2767,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004968704"/>
@@ -2296,7 +2815,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2307,7 +2826,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2372,7 +2891,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2665,7 +3184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073921712"/>
@@ -2713,7 +3232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073925040"/>
@@ -2761,7 +3280,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2772,7 +3291,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2837,7 +3356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3130,7 +3649,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064199248"/>
@@ -3178,7 +3697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064195920"/>
@@ -3226,7 +3745,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3237,7 +3756,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3302,7 +3821,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3595,7 +4114,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141333232"/>
@@ -3643,7 +4162,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141327408"/>
@@ -3691,7 +4210,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3702,7 +4221,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3767,7 +4286,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4060,7 +4579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064215056"/>
@@ -4108,7 +4627,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064202160"/>
@@ -4156,7 +4675,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4167,7 +4686,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4232,7 +4751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4323,7 +4842,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4561,7 +5080,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177714016"/>
@@ -4609,7 +5128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177713600"/>
@@ -4657,7 +5176,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4668,7 +5187,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4741,7 +5260,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5020,7 +5539,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224624"/>
@@ -5068,7 +5587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224208"/>
@@ -5116,472 +5635,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Lent Vif / VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$P$2:$P$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0.48863636363636365</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2045454545454546E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$Y$2:$Y$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>727.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC80-43F8-B8D6-612F24216F61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1005200688"/>
-        <c:axId val="1005201104"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1005200688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1005201104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1005201104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1005200688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5657,7 +5711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5765,7 +5819,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6003,7 +6057,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868185120"/>
@@ -6051,7 +6105,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868184288"/>
@@ -6099,7 +6153,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6111,6 +6165,471 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lent Vif / VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$P$2:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.48863636363636365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2045454545454546E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC80-43F8-B8D6-612F24216F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1005200688"/>
+        <c:axId val="1005201104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1005200688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1005201104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1005201104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1005200688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -6183,7 +6702,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6476,7 +6995,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172488432"/>
@@ -6524,7 +7043,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172490096"/>
@@ -6572,7 +7091,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6583,7 +7102,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -6648,7 +7167,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6739,7 +7258,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6977,7 +7496,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935838816"/>
@@ -7025,7 +7544,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935818848"/>
@@ -7073,7 +7592,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7084,7 +7603,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7149,7 +7668,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7442,7 +7961,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269003376"/>
@@ -7490,7 +8009,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268997968"/>
@@ -7538,7 +8057,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7549,7 +8068,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7622,7 +8141,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7713,7 +8232,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7951,7 +8470,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177709440"/>
@@ -7999,7 +8518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177690720"/>
@@ -8047,7 +8566,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8058,7 +8577,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8123,7 +8642,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8228,7 +8747,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8466,7 +8985,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076065200"/>
@@ -8514,7 +9033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076060624"/>
@@ -8562,7 +9081,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8573,7 +9092,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8638,7 +9157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8931,7 +9450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107543424"/>
@@ -8979,7 +9498,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107533440"/>
@@ -9027,7 +9546,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9038,7 +9557,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9103,7 +9622,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9396,7 +9915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935840064"/>
@@ -9444,7 +9963,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935837152"/>
@@ -9492,7 +10011,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9503,7 +10022,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9576,7 +10095,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9667,7 +10186,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9905,7 +10424,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172069744"/>
@@ -9953,7 +10472,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172048944"/>
@@ -10001,7 +10520,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10077,7 +10596,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10171,7 +10690,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10409,7 +10928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528694832"/>
@@ -10457,7 +10976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528696496"/>
@@ -10505,7 +11024,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10581,7 +11100,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10675,7 +11194,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10913,7 +11432,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873249360"/>
@@ -10961,7 +11480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873251440"/>
@@ -11009,7 +11528,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11085,7 +11604,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11121,78 +11640,6 @@
             </c:spPr>
           </c:marker>
           <c:dPt>
-            <c:idx val="15"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-296F-40CD-A4B9-4ED4F606791C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-296F-40CD-A4B9-4ED4F606791C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-296F-40CD-A4B9-4ED4F606791C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
             <c:idx val="22"/>
             <c:marker>
               <c:symbol val="circle"/>
@@ -11215,6 +11662,63 @@
                 <c16:uniqueId val="{00000005-296F-40CD-A4B9-4ED4F606791C}"/>
               </c:ext>
             </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
           </c:dPt>
           <c:trendline>
             <c:spPr>
@@ -11275,181 +11779,157 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$B$2:$B$27</c:f>
+              <c:f>BPS!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>121</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>126</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>119</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$C$2:$C$27</c:f>
+              <c:f>BPS!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>808.85</c:v>
+                  <c:v>939.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1244.5</c:v>
+                  <c:v>1200.1400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1127.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1250.0999999999999</c:v>
+                  <c:v>828.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1411.91</c:v>
+                  <c:v>771.81</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1266.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>641.14</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>727.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11514,7 +11994,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026464208"/>
@@ -11562,7 +12042,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026466704"/>
@@ -11610,7 +12090,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11622,6 +12102,460 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BPS!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BPS!$B$2:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BPS!$H$2:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4D5-4F49-8736-93E2569F91C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="760378184"/>
+        <c:axId val="760381464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="760378184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760381464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="760381464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760378184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -11686,7 +12620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11791,7 +12725,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12029,7 +12963,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005130992"/>
@@ -12077,7 +13011,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005131408"/>
@@ -12125,7 +13059,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12136,7 +13070,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -12201,7 +13135,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12306,7 +13240,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12544,7 +13478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1037082720"/>
@@ -12592,7 +13526,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870201088"/>
@@ -12640,7 +13574,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12651,7 +13585,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -12716,7 +13650,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12821,7 +13755,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13059,7 +13993,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064219632"/>
@@ -13107,7 +14041,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064209232"/>
@@ -13155,522 +14089,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Anxieux détendu/ VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11410454943132109"/>
-                  <c:y val="0.34776939340915725"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$G$2:$G$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0.22727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6363636363636369E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$Y$2:$Y$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>727.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1071-4AF3-BC62-572A634741B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="928866320"/>
-        <c:axId val="928867152"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="928866320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="928867152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="928867152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="928866320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14481,6 +14900,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25081,6 +25540,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -28875,6 +29850,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Graphique 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1680693-0012-43D2-A1B6-4CF7DE76666D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -29683,18 +30694,21 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:I27" totalsRowShown="0">
   <autoFilter ref="A1:I27" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I27">
+    <sortCondition ref="D1:D27"/>
+  </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{6453D9EA-F9CB-471D-8404-471B3F332756}" name="score"/>
     <tableColumn id="3" xr3:uid="{AA2EF9DD-2192-48E0-8BEC-D975F28D10E6}" name="VMN"/>
-    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)">
-      <calculatedColumnFormula>ABS(C2-(5.1316*B2+473.39))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)" dataDxfId="0">
+      <calculatedColumnFormula>ABS(C2-(6.1511*B2+348.6))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{E3E80936-5487-47DE-8A1C-072E65F3217E}" name="Motrice"/>
     <tableColumn id="6" xr3:uid="{60EC1AFD-A5DD-42B0-B267-6B8055FFE065}" name="Cognitive"/>
     <tableColumn id="7" xr3:uid="{2504FBF5-1DE9-4900-B1B6-9A8868D8DA0F}" name="Non-Planning"/>
     <tableColumn id="8" xr3:uid="{7A6A7DCC-C251-4009-8219-F264A30590BC}" name="Total"/>
-    <tableColumn id="9" xr3:uid="{1E55E981-93E3-42B8-817F-85E69C732542}" name="CV estimatoin temps"/>
+    <tableColumn id="9" xr3:uid="{1E55E981-93E3-42B8-817F-85E69C732542}" name="VMNCV"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -30601,13 +31615,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="B1:B1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -30640,64 +31655,63 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
+      <c r="A2" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B2">
-        <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C2">
-        <v>808.85</v>
+        <v>939.92</v>
       </c>
       <c r="D2">
-        <f>ABS(C2-(5.1316*B2+473.39))</f>
-        <v>285.46359999999993</v>
+        <f>ABS(C2-(6.1511*B2+348.6))</f>
+        <v>19.267699999999991</v>
       </c>
       <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>22</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
       <c r="H2">
-        <f>SUM(E2:G2)</f>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B3">
-        <f>3+6+2+2+4+2+6+4+5+4+3+3+5+3+7+2+4+5+2+6+5+2+4+4+2+5+6+1</f>
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C3">
-        <v>1244.5</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="D3">
-        <f>ABS(C3-(5.1316*B3+473.39))</f>
-        <v>222.02880000000005</v>
+        <f>ABS(C3-(6.1511*B3+348.6))</f>
+        <v>39.594800000000077</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <f>SUM(E3:G3)</f>
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -30711,8 +31725,8 @@
         <v>1127.92</v>
       </c>
       <c r="D4">
-        <f>ABS(C4-(5.1316*B4+473.39))</f>
-        <v>38.738000000000284</v>
+        <f>ABS(C4-(6.1511*B4+348.6))</f>
+        <v>41.188000000000102</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -30726,59 +31740,68 @@
       <c r="H4">
         <v>56</v>
       </c>
+      <c r="I4">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
+      <c r="A5" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B5">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>1250.0999999999999</v>
+        <v>828.46</v>
       </c>
       <c r="D5">
-        <f>ABS(C5-(5.1316*B5+473.39))</f>
-        <v>145.52320000000009</v>
+        <f>ABS(C5-(6.1511*B5+348.6))</f>
+        <v>42.983499999999935</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="I5">
+        <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>35</v>
+      <c r="A6" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>1411.91</v>
+        <v>771.81</v>
       </c>
       <c r="D6">
-        <f>ABS(C6-(5.1316*B6+473.39))</f>
-        <v>291.93840000000023</v>
+        <f>ABS(C6-(6.1511*B6+348.6))</f>
+        <v>50.42470000000003</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>0.24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -30792,8 +31815,8 @@
         <v>1266.79</v>
       </c>
       <c r="D7">
-        <f>ABS(C7-(5.1316*B7+473.39))</f>
-        <v>80.107600000000048</v>
+        <f>ABS(C7-(6.1511*B7+348.6))</f>
+        <v>63.1871000000001</v>
       </c>
       <c r="E7">
         <v>24</v>
@@ -30806,441 +31829,496 @@
       </c>
       <c r="H7">
         <v>71</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C8">
-        <v>641.14</v>
+        <v>952.27</v>
       </c>
       <c r="D8">
-        <f>ABS(C8-(5.1316*B8+473.39))</f>
-        <v>299.22559999999999</v>
+        <f>ABS(C8-(6.1511*B8+348.6))</f>
+        <v>85.253200000000106</v>
       </c>
       <c r="E8">
         <v>21</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
+      <c r="A9" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C9">
-        <v>1012.32</v>
+        <v>803.62</v>
       </c>
       <c r="D9">
-        <f>ABS(C9-(5.1316*B9+473.39))</f>
-        <v>123.04639999999984</v>
+        <f>ABS(C9-(6.1511*B9+348.6))</f>
+        <v>129.33449999999993</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>39</v>
+      <c r="A10" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C10">
-        <v>952.27</v>
+        <v>1012.32</v>
       </c>
       <c r="D10">
-        <f>ABS(C10-(5.1316*B10+473.39))</f>
-        <v>95.859199999999873</v>
+        <f>ABS(C10-(6.1511*B10+348.6))</f>
+        <v>129.77189999999985</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="I10">
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
+      <c r="A11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B11">
         <v>113</v>
       </c>
       <c r="C11">
-        <v>1276.5</v>
+        <v>1183.1199999999999</v>
       </c>
       <c r="D11">
-        <f>ABS(C11-(5.1316*B11+473.39))</f>
-        <v>223.23919999999998</v>
+        <f>ABS(C11-(6.1511*B11+348.6))</f>
+        <v>139.44569999999976</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H11">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="I11">
+        <v>0.32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>41</v>
+      <c r="A12" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C12">
-        <v>1183.1199999999999</v>
+        <v>1333.71</v>
       </c>
       <c r="D12">
-        <f>ABS(C12-(5.1316*B12+473.39))</f>
-        <v>129.85919999999987</v>
+        <f>ABS(C12-(6.1511*B12+348.6))</f>
+        <v>142.40930000000003</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <v>0.18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C13">
-        <v>771.81</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="D13">
-        <f>ABS(C13-(5.1316*B13+473.39))</f>
-        <v>96.713200000000029</v>
+        <f>ABS(C13-(6.1511*B13+348.6))</f>
+        <v>144.91469999999981</v>
       </c>
       <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13">
         <v>14</v>
       </c>
-      <c r="F13">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>17</v>
-      </c>
       <c r="H13">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="I13">
+        <v>0.19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14">
-        <v>939.92</v>
+        <v>1129.94</v>
       </c>
       <c r="D14">
-        <f>ABS(C14-(5.1316*B14+473.39))</f>
-        <v>10.708799999999997</v>
+        <f>ABS(C14-(6.1511*B14+348.6))</f>
+        <v>215.43880000000001</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>0.22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B15">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>1333.71</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="D15">
-        <f>ABS(C15-(5.1316*B15+473.39))</f>
-        <v>157.29080000000022</v>
+        <f>ABS(C15-(6.1511*B15+348.6))</f>
+        <v>226.81679999999983</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="I15">
+        <v>0.22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>45</v>
+      <c r="A16" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C16">
-        <v>1129.94</v>
+        <v>757.59</v>
       </c>
       <c r="D16">
-        <f>ABS(C16-(5.1316*B16+473.39))</f>
-        <v>184.44280000000003</v>
+        <f>ABS(C16-(6.1511*B16+348.6))</f>
+        <v>230.72439999999995</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H16">
+        <v>63</v>
+      </c>
+      <c r="I16">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B17">
+        <v>113</v>
+      </c>
+      <c r="C17">
+        <v>1276.5</v>
+      </c>
+      <c r="D17">
+        <f>ABS(C17-(6.1511*B17+348.6))</f>
+        <v>232.82569999999987</v>
+      </c>
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>58</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="12">
-        <v>119</v>
-      </c>
-      <c r="C17" s="12">
-        <v>440.17</v>
-      </c>
-      <c r="D17">
-        <f>ABS(C17-(5.1316*B17+473.39))</f>
-        <v>643.88040000000001</v>
-      </c>
-      <c r="E17">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>18</v>
-      </c>
-      <c r="G17">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <f>3+6+2+2+4+2+6+4+5+4+3+3+5+3+7+2+4+5+2+6+5+2+4+4+2+5+6+1</f>
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>1244.5</v>
+      </c>
+      <c r="D18">
+        <f>ABS(C18-(6.1511*B18+348.6))</f>
+        <v>237.73230000000001</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>27</v>
+      </c>
+      <c r="G18">
         <v>23</v>
       </c>
-      <c r="H17" s="12">
-        <v>55</v>
+      <c r="H18">
+        <f>SUM(E18:G18)</f>
+        <v>77</v>
+      </c>
+      <c r="I18">
+        <v>0.19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18">
-        <v>116</v>
-      </c>
-      <c r="C18">
-        <v>724.29</v>
-      </c>
-      <c r="D18">
-        <f>ABS(C18-(5.1316*B18+473.39))</f>
-        <v>344.36560000000009</v>
-      </c>
-      <c r="E18">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="14">
-        <v>104</v>
-      </c>
-      <c r="C19" s="14">
-        <v>555.07000000000005</v>
-      </c>
-      <c r="D19">
-        <f>ABS(C19-(5.1316*B19+473.39))</f>
-        <v>452.00639999999987</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="10">
+        <v>103</v>
+      </c>
+      <c r="C19">
+        <v>727.68</v>
+      </c>
+      <c r="D19" s="10">
+        <f>ABS(C19-(6.1511*B19+348.6))</f>
+        <v>254.48329999999999</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>56</v>
+      </c>
+      <c r="I19">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>641.14</v>
+      </c>
+      <c r="D20">
+        <f>ABS(C20-(6.1511*B20+348.6))</f>
+        <v>267.21010000000001</v>
+      </c>
+      <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>51</v>
+      </c>
+      <c r="I20">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
+        <v>121</v>
+      </c>
+      <c r="C21">
+        <v>808.85</v>
+      </c>
+      <c r="D21">
+        <f>ABS(C21-(6.1511*B21+348.6))</f>
+        <v>284.03309999999999</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <f>SUM(E21:G21)</f>
+        <v>59</v>
+      </c>
+      <c r="I21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>126</v>
+      </c>
+      <c r="C22">
+        <v>1411.91</v>
+      </c>
+      <c r="D22">
+        <f>ABS(C22-(6.1511*B22+348.6))</f>
+        <v>288.27140000000009</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
         <v>24</v>
       </c>
-      <c r="H19" s="14">
-        <v>67</v>
+      <c r="H22">
+        <v>63</v>
+      </c>
+      <c r="I22">
+        <v>0.18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="11">
-        <v>96</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1627.89</v>
-      </c>
-      <c r="D20">
-        <f>ABS(C20-(5.1316*B20+473.39))</f>
-        <v>661.86640000000011</v>
-      </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>19</v>
-      </c>
-      <c r="H20" s="11">
-        <v>51</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>116</v>
+      </c>
+      <c r="C23">
+        <v>724.29</v>
+      </c>
+      <c r="D23">
+        <f>ABS(C23-(6.1511*B23+348.6))</f>
+        <v>337.83759999999984</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>36</v>
+      </c>
+      <c r="I23">
+        <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21">
-        <v>112</v>
-      </c>
-      <c r="C21">
-        <v>1264.3399999999999</v>
-      </c>
-      <c r="D21">
-        <f>ABS(C21-(5.1316*B21+473.39))</f>
-        <v>216.21080000000006</v>
-      </c>
-      <c r="E21">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-      <c r="G21">
-        <v>14</v>
-      </c>
-      <c r="H21">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22">
-        <v>132</v>
-      </c>
-      <c r="C22">
-        <v>1200.1400000000001</v>
-      </c>
-      <c r="D22">
-        <f>ABS(C22-(5.1316*B22+473.39))</f>
-        <v>49.378800000000183</v>
-      </c>
-      <c r="E22">
-        <v>26</v>
-      </c>
-      <c r="F22">
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <v>22</v>
-      </c>
-      <c r="H22">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23">
-        <v>85</v>
-      </c>
-      <c r="C23">
-        <v>828.46</v>
-      </c>
-      <c r="D23">
-        <f>ABS(C23-(5.1316*B23+473.39))</f>
-        <v>81.115999999999985</v>
-      </c>
-      <c r="E23">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <v>14</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
@@ -31251,8 +32329,8 @@
         <v>1394.13</v>
       </c>
       <c r="D24">
-        <f>ABS(C24-(5.1316*B24+473.39))</f>
-        <v>387.05360000000019</v>
+        <f>ABS(C24-(6.1511*B24+348.6))</f>
+        <v>405.81560000000013</v>
       </c>
       <c r="E24">
         <v>17</v>
@@ -31266,86 +32344,98 @@
       <c r="H24" s="13">
         <v>37</v>
       </c>
+      <c r="I24">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25">
-        <v>95</v>
-      </c>
-      <c r="C25">
-        <v>803.62</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="14">
+        <v>104</v>
+      </c>
+      <c r="C25" s="14">
+        <v>555.07000000000005</v>
       </c>
       <c r="D25">
-        <f>ABS(C25-(5.1316*B25+473.39))</f>
-        <v>157.27199999999993</v>
+        <f>ABS(C25-(6.1511*B25+348.6))</f>
+        <v>433.24439999999993</v>
       </c>
       <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>26</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25" s="14">
+        <v>67</v>
+      </c>
+      <c r="I25">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="12">
+        <v>119</v>
+      </c>
+      <c r="C26" s="12">
+        <v>440.17</v>
+      </c>
+      <c r="D26">
+        <f>ABS(C26-(6.1511*B26+348.6))</f>
+        <v>640.41089999999986</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="H26" s="12">
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="11">
+        <v>96</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1627.89</v>
+      </c>
+      <c r="D27">
+        <f>ABS(C27-(6.1511*B27+348.6))</f>
+        <v>688.78440000000012</v>
+      </c>
+      <c r="E27">
         <v>15</v>
-      </c>
-      <c r="F25">
-        <v>14</v>
-      </c>
-      <c r="G25">
-        <v>18</v>
-      </c>
-      <c r="H25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26">
-        <v>104</v>
-      </c>
-      <c r="C26">
-        <v>757.59</v>
-      </c>
-      <c r="D26">
-        <f>ABS(C26-(5.1316*B26+473.39))</f>
-        <v>249.48639999999989</v>
-      </c>
-      <c r="E26">
-        <v>21</v>
-      </c>
-      <c r="F26">
-        <v>22</v>
-      </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="10">
-        <v>103</v>
-      </c>
-      <c r="C27">
-        <v>727.68</v>
-      </c>
-      <c r="D27" s="10">
-        <f>ABS(C27-(5.1316*B27+473.39))</f>
-        <v>274.26480000000004</v>
-      </c>
-      <c r="E27">
-        <v>17</v>
       </c>
       <c r="F27">
         <v>17</v>
       </c>
       <c r="G27">
-        <v>22</v>
-      </c>
-      <c r="H27">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="H27" s="11">
+        <v>51</v>
+      </c>
+      <c r="I27">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -31361,7 +32451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5566B99F-2A55-4BB2-9793-32B45D191865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9484AE66-0E2B-4685-B8D4-9D67B004F2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5844A80B-1F86-41B9-A872-9B32306B0E53}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="1520" yWindow="2120" windowWidth="13700" windowHeight="7810" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>Motrice</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>VMNCV</t>
+  </si>
+  <si>
+    <t>Moy GoNoGo</t>
+  </si>
+  <si>
+    <t>CV GoNoGo</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>CV ET a vérifier</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -557,7 +569,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -795,7 +807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="862478848"/>
@@ -843,7 +855,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="922025712"/>
@@ -891,7 +903,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -967,7 +979,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1072,7 +1084,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1310,7 +1322,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928867152"/>
@@ -1358,7 +1370,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928866320"/>
@@ -1406,7 +1418,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1482,7 +1494,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1775,7 +1787,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062225856"/>
@@ -1823,7 +1835,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062230016"/>
@@ -1871,7 +1883,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1947,7 +1959,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2052,7 +2064,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2254,7 +2266,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026527008"/>
@@ -2302,7 +2314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026522016"/>
@@ -2350,7 +2362,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2426,7 +2438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2719,7 +2731,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004969120"/>
@@ -2767,7 +2779,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004968704"/>
@@ -2815,7 +2827,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2891,7 +2903,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3184,7 +3196,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073921712"/>
@@ -3232,7 +3244,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073925040"/>
@@ -3280,7 +3292,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3356,7 +3368,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3649,7 +3661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064199248"/>
@@ -3697,7 +3709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064195920"/>
@@ -3745,7 +3757,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3821,7 +3833,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4114,7 +4126,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141333232"/>
@@ -4162,7 +4174,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141327408"/>
@@ -4210,7 +4222,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4286,7 +4298,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4579,7 +4591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064215056"/>
@@ -4627,7 +4639,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064202160"/>
@@ -4675,7 +4687,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4751,7 +4763,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4842,7 +4854,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5080,7 +5092,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177714016"/>
@@ -5128,7 +5140,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177713600"/>
@@ -5176,7 +5188,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5260,7 +5272,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5539,7 +5551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224624"/>
@@ -5587,7 +5599,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224208"/>
@@ -5635,7 +5647,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5711,7 +5723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5819,7 +5831,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6057,7 +6069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868185120"/>
@@ -6105,7 +6117,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868184288"/>
@@ -6153,7 +6165,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6229,7 +6241,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6522,7 +6534,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005201104"/>
@@ -6570,7 +6582,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005200688"/>
@@ -6618,7 +6630,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6702,7 +6714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6995,7 +7007,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172488432"/>
@@ -7043,7 +7055,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172490096"/>
@@ -7091,7 +7103,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7167,7 +7179,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7258,7 +7270,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7496,7 +7508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935838816"/>
@@ -7544,7 +7556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935818848"/>
@@ -7592,7 +7604,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7668,7 +7680,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7961,7 +7973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269003376"/>
@@ -8009,7 +8021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268997968"/>
@@ -8057,7 +8069,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8141,7 +8153,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8232,7 +8244,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8470,7 +8482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177709440"/>
@@ -8518,7 +8530,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177690720"/>
@@ -8566,7 +8578,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8642,7 +8654,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8747,7 +8759,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8985,7 +8997,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076065200"/>
@@ -9033,7 +9045,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076060624"/>
@@ -9081,7 +9093,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9157,7 +9169,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9450,7 +9462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107543424"/>
@@ -9498,7 +9510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107533440"/>
@@ -9546,7 +9558,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9622,7 +9634,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9915,7 +9927,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935840064"/>
@@ -9963,7 +9975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935837152"/>
@@ -10011,7 +10023,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10095,7 +10107,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10186,7 +10198,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10424,7 +10436,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172069744"/>
@@ -10472,7 +10484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172048944"/>
@@ -10520,7 +10532,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10596,7 +10608,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10690,7 +10702,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10928,7 +10940,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528694832"/>
@@ -10976,7 +10988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528696496"/>
@@ -11024,7 +11036,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11100,7 +11112,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11194,7 +11206,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11432,7 +11444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873249360"/>
@@ -11480,7 +11492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873251440"/>
@@ -11528,7 +11540,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11604,7 +11616,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11681,6 +11693,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DE46-41CD-B83F-6005D09B11D7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -11700,6 +11717,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-DE46-41CD-B83F-6005D09B11D7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -11719,6 +11741,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DE46-41CD-B83F-6005D09B11D7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:trendline>
             <c:spPr>
@@ -11767,7 +11794,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -11779,7 +11806,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11994,7 +12021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026464208"/>
@@ -12042,7 +12069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026466704"/>
@@ -12090,7 +12117,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12116,6 +12143,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Tendance à l'ennui / impulsivité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12141,7 +12193,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12187,6 +12239,70 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.42149059492563429"/>
+                  <c:y val="2.1863152522601341E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>BPS!$B$2:$B$34</c:f>
@@ -12383,23 +12499,10 @@
         <c:axId val="760378184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12434,7 +12537,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760381464"/>
@@ -12448,20 +12551,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12496,7 +12585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760378184"/>
@@ -12544,7 +12633,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12620,7 +12709,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12725,7 +12814,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12963,7 +13052,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005130992"/>
@@ -13011,7 +13100,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005131408"/>
@@ -13059,7 +13148,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13135,7 +13224,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13240,7 +13329,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13478,7 +13567,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1037082720"/>
@@ -13526,7 +13615,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870201088"/>
@@ -13574,7 +13663,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13650,7 +13739,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13755,7 +13844,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13993,7 +14082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064219632"/>
@@ -14041,7 +14130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064209232"/>
@@ -14089,7 +14178,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -29821,16 +29910,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>669636</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>49438</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>288638</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60982</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29857,16 +29946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>658091</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129309</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300183</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>658091</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>300183</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30692,12 +30781,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:I27" totalsRowShown="0">
-  <autoFilter ref="A1:I27" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:M27" totalsRowShown="0">
+  <autoFilter ref="A1:M27" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I27">
     <sortCondition ref="D1:D27"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{6453D9EA-F9CB-471D-8404-471B3F332756}" name="score"/>
     <tableColumn id="3" xr3:uid="{AA2EF9DD-2192-48E0-8BEC-D975F28D10E6}" name="VMN"/>
@@ -30709,6 +30798,10 @@
     <tableColumn id="7" xr3:uid="{2504FBF5-1DE9-4900-B1B6-9A8868D8DA0F}" name="Non-Planning"/>
     <tableColumn id="8" xr3:uid="{7A6A7DCC-C251-4009-8219-F264A30590BC}" name="Total"/>
     <tableColumn id="9" xr3:uid="{1E55E981-93E3-42B8-817F-85E69C732542}" name="VMNCV"/>
+    <tableColumn id="10" xr3:uid="{15E6BBD5-F5B0-4E66-ACB3-ED18DD50288D}" name="Moy GoNoGo"/>
+    <tableColumn id="11" xr3:uid="{9609F42C-534A-4977-AD18-CDE10FF92E84}" name="CV GoNoGo"/>
+    <tableColumn id="12" xr3:uid="{056FB755-C795-401E-A7FC-CA77629D5450}" name="RT"/>
+    <tableColumn id="13" xr3:uid="{16FAAFBD-3517-466B-A7B5-461A2984E740}" name="CV ET a vérifier"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31613,10 +31706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="B1:B1048576 H1:H1048576"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31625,7 +31718,7 @@
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -31653,8 +31746,20 @@
       <c r="I1" t="s">
         <v>62</v>
       </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>43</v>
       </c>
@@ -31665,7 +31770,7 @@
         <v>939.92</v>
       </c>
       <c r="D2">
-        <f>ABS(C2-(6.1511*B2+348.6))</f>
+        <f t="shared" ref="D2:D27" si="0">ABS(C2-(6.1511*B2+348.6))</f>
         <v>19.267699999999991</v>
       </c>
       <c r="E2">
@@ -31684,7 +31789,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>54</v>
       </c>
@@ -31695,7 +31800,7 @@
         <v>1200.1400000000001</v>
       </c>
       <c r="D3">
-        <f>ABS(C3-(6.1511*B3+348.6))</f>
+        <f t="shared" si="0"/>
         <v>39.594800000000077</v>
       </c>
       <c r="E3">
@@ -31714,7 +31819,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -31725,7 +31830,7 @@
         <v>1127.92</v>
       </c>
       <c r="D4">
-        <f>ABS(C4-(6.1511*B4+348.6))</f>
+        <f t="shared" si="0"/>
         <v>41.188000000000102</v>
       </c>
       <c r="E4">
@@ -31744,7 +31849,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>55</v>
       </c>
@@ -31755,7 +31860,7 @@
         <v>828.46</v>
       </c>
       <c r="D5">
-        <f>ABS(C5-(6.1511*B5+348.6))</f>
+        <f t="shared" si="0"/>
         <v>42.983499999999935</v>
       </c>
       <c r="E5">
@@ -31774,7 +31879,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -31785,7 +31890,7 @@
         <v>771.81</v>
       </c>
       <c r="D6">
-        <f>ABS(C6-(6.1511*B6+348.6))</f>
+        <f t="shared" si="0"/>
         <v>50.42470000000003</v>
       </c>
       <c r="E6">
@@ -31804,7 +31909,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -31815,7 +31920,7 @@
         <v>1266.79</v>
       </c>
       <c r="D7">
-        <f>ABS(C7-(6.1511*B7+348.6))</f>
+        <f t="shared" si="0"/>
         <v>63.1871000000001</v>
       </c>
       <c r="E7">
@@ -31834,7 +31939,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -31845,7 +31950,7 @@
         <v>952.27</v>
       </c>
       <c r="D8">
-        <f>ABS(C8-(6.1511*B8+348.6))</f>
+        <f t="shared" si="0"/>
         <v>85.253200000000106</v>
       </c>
       <c r="E8">
@@ -31864,7 +31969,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>57</v>
       </c>
@@ -31875,7 +31980,7 @@
         <v>803.62</v>
       </c>
       <c r="D9">
-        <f>ABS(C9-(6.1511*B9+348.6))</f>
+        <f t="shared" si="0"/>
         <v>129.33449999999993</v>
       </c>
       <c r="E9">
@@ -31894,7 +31999,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -31905,7 +32010,7 @@
         <v>1012.32</v>
       </c>
       <c r="D10">
-        <f>ABS(C10-(6.1511*B10+348.6))</f>
+        <f t="shared" si="0"/>
         <v>129.77189999999985</v>
       </c>
       <c r="E10">
@@ -31924,7 +32029,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -31935,7 +32040,7 @@
         <v>1183.1199999999999</v>
       </c>
       <c r="D11">
-        <f>ABS(C11-(6.1511*B11+348.6))</f>
+        <f t="shared" si="0"/>
         <v>139.44569999999976</v>
       </c>
       <c r="E11">
@@ -31954,7 +32059,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -31965,7 +32070,7 @@
         <v>1333.71</v>
       </c>
       <c r="D12">
-        <f>ABS(C12-(6.1511*B12+348.6))</f>
+        <f t="shared" si="0"/>
         <v>142.40930000000003</v>
       </c>
       <c r="E12">
@@ -31984,7 +32089,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -31995,7 +32100,7 @@
         <v>1250.0999999999999</v>
       </c>
       <c r="D13">
-        <f>ABS(C13-(6.1511*B13+348.6))</f>
+        <f t="shared" si="0"/>
         <v>144.91469999999981</v>
       </c>
       <c r="E13">
@@ -32014,7 +32119,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
@@ -32025,7 +32130,7 @@
         <v>1129.94</v>
       </c>
       <c r="D14">
-        <f>ABS(C14-(6.1511*B14+348.6))</f>
+        <f t="shared" si="0"/>
         <v>215.43880000000001</v>
       </c>
       <c r="E14">
@@ -32044,7 +32149,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -32055,7 +32160,7 @@
         <v>1264.3399999999999</v>
       </c>
       <c r="D15">
-        <f>ABS(C15-(6.1511*B15+348.6))</f>
+        <f t="shared" si="0"/>
         <v>226.81679999999983</v>
       </c>
       <c r="E15">
@@ -32074,7 +32179,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -32085,7 +32190,7 @@
         <v>757.59</v>
       </c>
       <c r="D16">
-        <f>ABS(C16-(6.1511*B16+348.6))</f>
+        <f t="shared" si="0"/>
         <v>230.72439999999995</v>
       </c>
       <c r="E16">
@@ -32104,7 +32209,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -32115,7 +32220,7 @@
         <v>1276.5</v>
       </c>
       <c r="D17">
-        <f>ABS(C17-(6.1511*B17+348.6))</f>
+        <f t="shared" si="0"/>
         <v>232.82569999999987</v>
       </c>
       <c r="E17">
@@ -32134,7 +32239,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -32146,7 +32251,7 @@
         <v>1244.5</v>
       </c>
       <c r="D18">
-        <f>ABS(C18-(6.1511*B18+348.6))</f>
+        <f t="shared" si="0"/>
         <v>237.73230000000001</v>
       </c>
       <c r="E18">
@@ -32166,7 +32271,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -32177,7 +32282,7 @@
         <v>727.68</v>
       </c>
       <c r="D19" s="10">
-        <f>ABS(C19-(6.1511*B19+348.6))</f>
+        <f t="shared" si="0"/>
         <v>254.48329999999999</v>
       </c>
       <c r="E19">
@@ -32195,8 +32300,20 @@
       <c r="I19">
         <v>0.19</v>
       </c>
+      <c r="J19">
+        <v>0.64</v>
+      </c>
+      <c r="K19">
+        <v>0.06</v>
+      </c>
+      <c r="L19">
+        <v>0.38</v>
+      </c>
+      <c r="M19">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -32207,7 +32324,7 @@
         <v>641.14</v>
       </c>
       <c r="D20">
-        <f>ABS(C20-(6.1511*B20+348.6))</f>
+        <f t="shared" si="0"/>
         <v>267.21010000000001</v>
       </c>
       <c r="E20">
@@ -32226,7 +32343,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
@@ -32238,7 +32355,7 @@
         <v>808.85</v>
       </c>
       <c r="D21">
-        <f>ABS(C21-(6.1511*B21+348.6))</f>
+        <f t="shared" si="0"/>
         <v>284.03309999999999</v>
       </c>
       <c r="E21">
@@ -32258,7 +32375,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
@@ -32269,7 +32386,7 @@
         <v>1411.91</v>
       </c>
       <c r="D22">
-        <f>ABS(C22-(6.1511*B22+348.6))</f>
+        <f t="shared" si="0"/>
         <v>288.27140000000009</v>
       </c>
       <c r="E22">
@@ -32288,7 +32405,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -32299,7 +32416,7 @@
         <v>724.29</v>
       </c>
       <c r="D23">
-        <f>ABS(C23-(6.1511*B23+348.6))</f>
+        <f t="shared" si="0"/>
         <v>337.83759999999984</v>
       </c>
       <c r="E23">
@@ -32318,7 +32435,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
@@ -32329,7 +32446,7 @@
         <v>1394.13</v>
       </c>
       <c r="D24">
-        <f>ABS(C24-(6.1511*B24+348.6))</f>
+        <f t="shared" si="0"/>
         <v>405.81560000000013</v>
       </c>
       <c r="E24">
@@ -32348,7 +32465,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -32359,7 +32476,7 @@
         <v>555.07000000000005</v>
       </c>
       <c r="D25">
-        <f>ABS(C25-(6.1511*B25+348.6))</f>
+        <f t="shared" si="0"/>
         <v>433.24439999999993</v>
       </c>
       <c r="E25">
@@ -32378,7 +32495,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -32389,7 +32506,7 @@
         <v>440.17</v>
       </c>
       <c r="D26">
-        <f>ABS(C26-(6.1511*B26+348.6))</f>
+        <f t="shared" si="0"/>
         <v>640.41089999999986</v>
       </c>
       <c r="E26">
@@ -32408,7 +32525,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>49</v>
       </c>
@@ -32419,7 +32536,7 @@
         <v>1627.89</v>
       </c>
       <c r="D27">
-        <f>ABS(C27-(6.1511*B27+348.6))</f>
+        <f t="shared" si="0"/>
         <v>688.78440000000012</v>
       </c>
       <c r="E27">
@@ -32451,7 +32568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9484AE66-0E2B-4685-B8D4-9D67B004F2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5844A80B-1F86-41B9-A872-9B32306B0E53}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228B0482-7844-42FD-A058-E3222847873C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="2120" windowWidth="13700" windowHeight="7810" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>Motrice</t>
   </si>
@@ -239,6 +239,12 @@
   <si>
     <t>CV ET a vérifier</t>
   </si>
+  <si>
+    <t>nb erreur Go no Go</t>
+  </si>
+  <si>
+    <t>sub-00AD</t>
+  </si>
 </sst>
 </file>
 
@@ -264,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +313,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -327,12 +339,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -355,6 +376,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -948,6 +973,521 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Mesuré Passionné/ VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17002012248468942"/>
+                  <c:y val="-0.24619240303295423"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.89772727272727271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2954545454545452E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D35-425B-B15D-7A4417489259}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1064209232"/>
+        <c:axId val="1064219632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1064209232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064219632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1064219632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064209232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Anxieux détendu/ VMN</a:t>
             </a:r>
@@ -1429,7 +1969,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1894,7 +2434,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2373,7 +2913,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2838,7 +3378,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3303,7 +3843,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3768,7 +4308,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4233,7 +4773,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4698,7 +5238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5144,465 +5684,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1177713600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Prident</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> Maladroit / </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$O$2:$O$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0.39772727272727271</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2954545454545452E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$Y$2:$Y$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>727.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-785E-4A2A-878C-C5558297EC6F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1064224208"/>
-        <c:axId val="1064224624"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1064224208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1064224624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1064224624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1064224208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6210,6 +6291,465 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Prident</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Maladroit / </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$O$2:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.39772727272727271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2954545454545452E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>727.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-785E-4A2A-878C-C5558297EC6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1064224208"/>
+        <c:axId val="1064224624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1064224208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064224624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1064224624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064224208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Lent Vif / VMN</a:t>
             </a:r>
@@ -6641,7 +7181,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7114,7 +7654,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7615,7 +8155,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8080,7 +8620,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8589,7 +9129,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9104,7 +9644,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9569,7 +10109,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -10034,7 +10574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -11658,7 +12198,7 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
@@ -11682,7 +12222,7 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
@@ -11706,7 +12246,7 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
@@ -11813,10 +12353,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$B$2:$B$23</c:f>
+              <c:f>BPS!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>93</c:v>
                 </c:pt>
@@ -11882,16 +12422,28 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$C$2:$C$23</c:f>
+              <c:f>BPS!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>939.92</c:v>
                 </c:pt>
@@ -11957,6 +12509,18 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1627.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12305,10 +12869,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$B$2:$B$34</c:f>
+              <c:f>BPS!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>93</c:v>
                 </c:pt>
@@ -12392,10 +12956,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$H$2:$H$34</c:f>
+              <c:f>BPS!$H$2:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>42</c:v>
                 </c:pt>
@@ -12678,6 +13242,558 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Vmax/impulsivité</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-46CC-4469-947F-08C3E634979C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-46CC-4469-947F-08C3E634979C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.42640326921160171"/>
+                  <c:y val="-5.7134188318172657E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BPS!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BPS!$H$2:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46CC-4469-947F-08C3E634979C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="709099871"/>
+        <c:axId val="709100703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="709099871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709100703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="709100703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709099871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Patient impatient / VMN</a:t>
             </a:r>
@@ -13159,7 +14275,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -13619,521 +14735,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="870201088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Mesuré Passionné/ VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17002012248468942"/>
-                  <c:y val="-0.24619240303295423"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$D$2:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0.89772727272727271</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2954545454545452E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$Y$2:$Y$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>727.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D35-425B-B15D-7A4417489259}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1064209232"/>
-        <c:axId val="1064219632"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1064209232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1064219632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1064219632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1064209232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15029,6 +15630,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -26145,6 +26786,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -29910,16 +31067,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>311728</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>555626</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>138544</xdr:rowOff>
+      <xdr:rowOff>34635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>288638</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60982</xdr:rowOff>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29946,16 +31103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>300183</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140854</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>736642</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>300183</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>113145</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>736642</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47789</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29975,6 +31132,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>715818</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782F9DE6-6147-4E8C-AB22-E4078AF86408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -30781,12 +31974,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:M27" totalsRowShown="0">
-  <autoFilter ref="A1:M27" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:N28" totalsRowShown="0">
+  <autoFilter ref="A1:N28" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I27">
     <sortCondition ref="D1:D27"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{6453D9EA-F9CB-471D-8404-471B3F332756}" name="score"/>
     <tableColumn id="3" xr3:uid="{AA2EF9DD-2192-48E0-8BEC-D975F28D10E6}" name="VMN"/>
@@ -30800,6 +31993,7 @@
     <tableColumn id="9" xr3:uid="{1E55E981-93E3-42B8-817F-85E69C732542}" name="VMNCV"/>
     <tableColumn id="10" xr3:uid="{15E6BBD5-F5B0-4E66-ACB3-ED18DD50288D}" name="Moy GoNoGo"/>
     <tableColumn id="11" xr3:uid="{9609F42C-534A-4977-AD18-CDE10FF92E84}" name="CV GoNoGo"/>
+    <tableColumn id="14" xr3:uid="{19A2F9EA-9DB0-4715-9505-E91965026DEF}" name="nb erreur Go no Go"/>
     <tableColumn id="12" xr3:uid="{056FB755-C795-401E-A7FC-CA77629D5450}" name="RT"/>
     <tableColumn id="13" xr3:uid="{16FAAFBD-3517-466B-A7B5-461A2984E740}" name="CV ET a vérifier"/>
   </tableColumns>
@@ -31107,7 +32301,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31706,10 +32900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31718,7 +32912,7 @@
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -31753,13 +32947,16 @@
         <v>64</v>
       </c>
       <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>43</v>
       </c>
@@ -31789,7 +32986,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>54</v>
       </c>
@@ -31819,7 +33016,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -31849,8 +33046,8 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B5">
@@ -31879,7 +33076,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -31909,7 +33106,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -31939,7 +33136,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -31969,8 +33166,8 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B9">
@@ -31999,7 +33196,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -32029,8 +33226,8 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B11">
@@ -32059,7 +33256,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -32089,7 +33286,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -32119,7 +33316,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
@@ -32149,7 +33346,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -32179,7 +33376,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -32209,7 +33406,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -32239,7 +33436,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -32270,9 +33467,12 @@
       <c r="I18">
         <v>0.19</v>
       </c>
+      <c r="M18" s="13">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="10">
@@ -32307,13 +33507,16 @@
         <v>0.06</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>0.38</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -32343,7 +33546,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
@@ -32374,8 +33577,14 @@
       <c r="I21">
         <v>0.2</v>
       </c>
+      <c r="J21">
+        <v>0.81</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
@@ -32405,8 +33614,8 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B23">
@@ -32435,7 +33644,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
@@ -32465,7 +33674,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -32495,7 +33704,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -32525,8 +33734,8 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="11">
@@ -32554,6 +33763,34 @@
       <c r="I27">
         <v>0.12</v>
       </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="10">
+        <v>19</v>
+      </c>
+      <c r="F28" s="10">
+        <v>17</v>
+      </c>
+      <c r="G28" s="10">
+        <v>17</v>
+      </c>
+      <c r="H28" s="10">
+        <v>53</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="N28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8B4593-02B3-49EF-B514-71AC2D5168E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{2C8B4593-02B3-49EF-B514-71AC2D5168E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22F36924-568C-41FE-BFCB-75E230DB6A8B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>RT</t>
   </si>
   <si>
-    <t>CV ET a vérifier</t>
-  </si>
-  <si>
     <t>nb erreur Go no Go</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>Colonne2</t>
+  </si>
+  <si>
+    <t>CV taplen</t>
   </si>
 </sst>
 </file>
@@ -425,10 +425,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -462,15 +462,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -815,6 +806,15 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -914,7 +914,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1022,7 +1022,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1260,7 +1260,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="862478848"/>
@@ -1308,7 +1308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="922025712"/>
@@ -1356,7 +1356,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1368,6 +1368,521 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Réfléchit impulsif / VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.4844488188976382E-2"/>
+                  <c:y val="0.29998869932925043"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>1.8181818181818184E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.44318181818181818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96FB-4B04-BC86-8B68076DFED4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="870201088"/>
+        <c:axId val="1037082720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="870201088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037082720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1037082720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870201088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1432,7 +1947,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1537,7 +2052,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1775,7 +2290,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064219632"/>
@@ -1823,7 +2338,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064209232"/>
@@ -1871,7 +2386,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1882,7 +2397,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1947,7 +2462,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2052,7 +2567,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2290,7 +2805,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928867152"/>
@@ -2338,7 +2853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928866320"/>
@@ -2386,7 +2901,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2397,7 +2912,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2462,7 +2977,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2755,7 +3270,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062225856"/>
@@ -2803,7 +3318,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062230016"/>
@@ -2851,7 +3366,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2862,7 +3377,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2927,7 +3442,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3032,7 +3547,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3234,7 +3749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026527008"/>
@@ -3282,7 +3797,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026522016"/>
@@ -3330,7 +3845,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3341,7 +3856,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3406,7 +3921,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3699,7 +4214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004969120"/>
@@ -3747,7 +4262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004968704"/>
@@ -3795,7 +4310,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3806,7 +4321,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3871,7 +4386,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4164,7 +4679,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073921712"/>
@@ -4212,7 +4727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073925040"/>
@@ -4260,7 +4775,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4271,7 +4786,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4336,7 +4851,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4629,7 +5144,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064199248"/>
@@ -4677,7 +5192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064195920"/>
@@ -4725,7 +5240,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4736,7 +5251,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4801,7 +5316,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5094,7 +5609,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141333232"/>
@@ -5142,7 +5657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141327408"/>
@@ -5190,7 +5705,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5201,7 +5716,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5266,7 +5781,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5559,7 +6074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064215056"/>
@@ -5607,7 +6122,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064202160"/>
@@ -5655,508 +6170,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Habile Maladroit / VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10172528433945757"/>
-                  <c:y val="0.28531969962088072"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$O$2:$O$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>2.8409090909090908E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.43181818181818182</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C925-4EFB-815C-C849CC6F8BC0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1177713600"/>
-        <c:axId val="1177714016"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1177713600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1177714016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1177714016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1177713600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6232,7 +6246,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6340,7 +6354,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6578,7 +6592,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868185120"/>
@@ -6626,7 +6640,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868184288"/>
@@ -6674,7 +6688,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6686,6 +6700,507 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Habile Maladroit / VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10172528433945757"/>
+                  <c:y val="0.28531969962088072"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$O$2:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>2.8409090909090908E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.43181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C925-4EFB-815C-C849CC6F8BC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1177713600"/>
+        <c:axId val="1177714016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1177713600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177714016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1177714016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177713600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -6758,7 +7273,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7037,7 +7552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224624"/>
@@ -7085,7 +7600,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224208"/>
@@ -7133,7 +7648,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7144,7 +7659,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7209,7 +7724,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7502,7 +8017,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005201104"/>
@@ -7550,7 +8065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005200688"/>
@@ -7598,7 +8113,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7609,7 +8124,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7682,7 +8197,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7975,7 +8490,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172488432"/>
@@ -8023,7 +8538,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172490096"/>
@@ -8071,7 +8586,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8082,7 +8597,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8147,7 +8662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8238,7 +8753,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8476,7 +8991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935838816"/>
@@ -8524,7 +9039,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935818848"/>
@@ -8572,7 +9087,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8583,7 +9098,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8648,7 +9163,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8941,7 +9456,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269003376"/>
@@ -8989,7 +9504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268997968"/>
@@ -9037,7 +9552,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9048,7 +9563,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9121,7 +9636,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9212,7 +9727,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9450,7 +9965,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177709440"/>
@@ -9498,7 +10013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177690720"/>
@@ -9546,7 +10061,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9557,7 +10072,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9622,7 +10137,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9727,7 +10242,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9965,7 +10480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076065200"/>
@@ -10013,7 +10528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076060624"/>
@@ -10061,7 +10576,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10072,7 +10587,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -10137,7 +10652,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10430,7 +10945,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107543424"/>
@@ -10478,7 +10993,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107533440"/>
@@ -10526,7 +11041,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10537,7 +11052,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -10602,7 +11117,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10895,7 +11410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935840064"/>
@@ -10943,7 +11458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935837152"/>
@@ -10991,516 +11506,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Ouverture Fermeture à</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> l'éxpérience / </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.16914523184601923"/>
-                  <c:y val="0.38122047244094487"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$Z$2:$Z$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>1.4772727272727272E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>5.6818181818181816E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6B6F-4D5D-9E20-A5246AF8E29D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1172048944"/>
-        <c:axId val="1172069744"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1172048944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1172069744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1172069744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1172048944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11576,7 +11582,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11670,7 +11676,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11908,7 +11914,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528694832"/>
@@ -11956,7 +11962,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528696496"/>
@@ -12004,7 +12010,516 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ouverture Fermeture à</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> l'éxpérience / </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16914523184601923"/>
+                  <c:y val="0.38122047244094487"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$Z$2:$Z$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>1.4772727272727272E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>5.6818181818181816E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B6F-4D5D-9E20-A5246AF8E29D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1172048944"/>
+        <c:axId val="1172069744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1172048944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172069744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1172069744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172048944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12080,7 +12595,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12174,7 +12689,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12412,7 +12927,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873249360"/>
@@ -12460,7 +12975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873251440"/>
@@ -12508,7 +13023,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12584,7 +13099,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12637,28 +13152,14 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-4B9E-49B8-B54B-3A12DD0DBEB6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="10"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="3"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -12677,7 +13178,7 @@
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:dPt>
-            <c:idx val="23"/>
+            <c:idx val="22"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -12694,11 +13195,6 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DE46-41CD-B83F-6005D09B11D7}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:trendline>
             <c:spPr>
@@ -12759,175 +13255,157 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$B$2:$B$27</c:f>
+              <c:f>BPS!$B$4:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="1">
-                  <c:v>103</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>107</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>85</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>123</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$C$2:$C$27</c:f>
+              <c:f>BPS!$C$4:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="1">
-                  <c:v>727.68</c:v>
+                  <c:v>808.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>555.07000000000005</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1244.5</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>952.27</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>1012.32</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1129.94</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>771.81</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1266.79</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>828.46</c:v>
+                  <c:v>1276.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1250.0999999999999</c:v>
+                  <c:v>1333.71</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1200.1400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12992,7 +13470,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026464208"/>
@@ -13040,7 +13518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026466704"/>
@@ -13088,7 +13566,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13164,7 +13642,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13269,7 +13747,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13280,80 +13758,80 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>123</c:v>
-                </c:pt>
                 <c:pt idx="22">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>137</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>132</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13365,82 +13843,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13505,7 +13983,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760381464"/>
@@ -13553,7 +14031,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760378184"/>
@@ -13601,7 +14079,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13677,7 +14155,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13713,26 +14191,7 @@
             </c:spPr>
           </c:marker>
           <c:dPt>
-            <c:idx val="10"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="23"/>
+            <c:idx val="24"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -13809,7 +14268,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13820,80 +14279,80 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>555.07000000000005</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>952.27</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>641.14</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1127.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>803.62</c:v>
+                  <c:v>1129.94</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>939.92</c:v>
+                  <c:v>1183.1199999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>771.81</c:v>
+                  <c:v>1200.1400000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1266.79</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>757.59</c:v>
+                  <c:v>1276.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1394.13</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>1333.71</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>1200.1400000000001</c:v>
+                  <c:v>1411.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13905,82 +14364,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14044,7 +14503,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="709100703"/>
@@ -14092,7 +14551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="709099871"/>
@@ -14140,7 +14599,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14152,6 +14611,406 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>CV/ Impulsivité motrice</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.56987051618547679"/>
+                  <c:y val="1.8579396325459317E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BPS!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BPS!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41B0-4272-AD35-8A47A270F57E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2047136991"/>
+        <c:axId val="2047159455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2047136991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047159455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2047159455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047136991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -14216,7 +15075,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14321,7 +15180,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -14559,7 +15418,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005130992"/>
@@ -14607,7 +15466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005131408"/>
@@ -14655,522 +15514,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Réfléchit impulsif / VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.4844488188976382E-2"/>
-                  <c:y val="0.29998869932925043"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$C$2:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>1.8181818181818184E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.44318181818181818</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-96FB-4B04-BC86-8B68076DFED4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="870201088"/>
-        <c:axId val="1037082720"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="870201088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1037082720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1037082720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="870201088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16101,6 +16445,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -27694,6 +28078,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -31559,6 +32459,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>721179</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93A2B25-CB22-4F67-BDD1-F8334D9539E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -32368,7 +33304,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:N28" totalsRowShown="0">
   <autoFilter ref="A1:N28" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N28">
-    <sortCondition ref="A1:A28"/>
+    <sortCondition ref="K1:K28"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="28"/>
@@ -32386,45 +33322,45 @@
     <tableColumn id="11" xr3:uid="{9609F42C-534A-4977-AD18-CDE10FF92E84}" name="CV GoNoGo"/>
     <tableColumn id="14" xr3:uid="{19A2F9EA-9DB0-4715-9505-E91965026DEF}" name="nb erreur Go no Go"/>
     <tableColumn id="12" xr3:uid="{056FB755-C795-401E-A7FC-CA77629D5450}" name="RT"/>
-    <tableColumn id="13" xr3:uid="{16FAAFBD-3517-466B-A7B5-461A2984E740}" name="CV ET a vérifier"/>
+    <tableColumn id="13" xr3:uid="{16FAAFBD-3517-466B-A7B5-461A2984E740}" name="CV taplen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AA27" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AA27" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A1:AA27" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA27">
     <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="26"/>
-    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="25"/>
+    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="0"/>
     <tableColumn id="25" xr3:uid="{D6260960-9238-4F09-91AD-EDE247C55825}" name="VMN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -32730,7 +33666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012EDC3-90BA-420E-8C93-D3C748D2357F}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -33332,8 +34268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33377,489 +34313,502 @@
         <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
         <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="8">
-        <v>19</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="A2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>727.68</v>
+      </c>
+      <c r="D2" s="8">
+        <f>ABS(C2-(6.1511*B2+348.6))</f>
+        <v>254.48329999999999</v>
+      </c>
+      <c r="E2">
         <v>17</v>
       </c>
-      <c r="G2" s="8">
+      <c r="F2">
         <v>17</v>
       </c>
-      <c r="H2" s="8">
-        <v>53</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="16">
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>56</v>
+      </c>
+      <c r="I2">
+        <v>0.19</v>
+      </c>
+      <c r="J2">
+        <v>0.64</v>
+      </c>
+      <c r="K2">
+        <v>0.06</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0.38</v>
       </c>
-      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="8">
-        <v>103</v>
+      <c r="A3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <f>3+6+2+2+4+2+6+4+5+4+3+3+5+3+7+2+4+5+2+6+5+2+4+4+2+5+6+1</f>
+        <v>107</v>
       </c>
       <c r="C3">
-        <v>727.68</v>
-      </c>
-      <c r="D3" s="8">
+        <v>1244.5</v>
+      </c>
+      <c r="D3">
         <f>ABS(C3-(6.1511*B3+348.6))</f>
-        <v>254.48329999999999</v>
+        <v>237.73230000000001</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <f>SUM(E3:G3)</f>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>0.19</v>
       </c>
       <c r="J3">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="K3">
-        <v>0.06</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.38</v>
-      </c>
-      <c r="N3">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="12">
-        <v>104</v>
-      </c>
-      <c r="C4" s="12">
-        <v>555.07000000000005</v>
-      </c>
-      <c r="D4">
-        <f>ABS(C4-(6.1511*B4+348.6))</f>
-        <v>433.24439999999993</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="8">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8">
         <v>17</v>
       </c>
-      <c r="F4">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>24</v>
-      </c>
-      <c r="H4" s="12">
-        <v>67</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="8">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8">
+        <v>53</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
         <v>0.27</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.09</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>28</v>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
-        <f>3+6+2+2+4+2+6+4+5+4+3+3+5+3+7+2+4+5+2+6+5+2+4+4+2+5+6+1</f>
-        <v>107</v>
+        <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
+        <v>121</v>
       </c>
       <c r="C5">
-        <v>1244.5</v>
+        <v>808.85</v>
       </c>
       <c r="D5">
         <f>ABS(C5-(6.1511*B5+348.6))</f>
-        <v>237.73230000000001</v>
+        <v>284.03309999999999</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <f>SUM(E5:G5)</f>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I5">
-        <v>0.19</v>
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>0.81</v>
+      </c>
+      <c r="K5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
       <c r="M5" s="11">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>112</v>
-      </c>
-      <c r="C6">
-        <v>952.27</v>
+      <c r="A6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="10">
+        <v>119</v>
+      </c>
+      <c r="C6" s="10">
+        <v>440.17</v>
       </c>
       <c r="D6">
         <f>ABS(C6-(6.1511*B6+348.6))</f>
-        <v>85.253200000000106</v>
+        <v>640.41089999999986</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>24</v>
-      </c>
-      <c r="H6">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="H6" s="10">
+        <v>55</v>
       </c>
       <c r="I6">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>129</v>
-      </c>
-      <c r="C7">
-        <v>1012.32</v>
+      <c r="A7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="12">
+        <v>104</v>
+      </c>
+      <c r="C7" s="12">
+        <v>555.07000000000005</v>
       </c>
       <c r="D7">
         <f>ABS(C7-(6.1511*B7+348.6))</f>
-        <v>129.77189999999985</v>
+        <v>433.24439999999993</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>26</v>
       </c>
       <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>73</v>
+        <v>24</v>
+      </c>
+      <c r="H7" s="12">
+        <v>67</v>
       </c>
       <c r="I7">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>47</v>
+      <c r="A8" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C8">
-        <v>724.29</v>
+        <v>641.14</v>
       </c>
       <c r="D8">
         <f>ABS(C8-(6.1511*B8+348.6))</f>
-        <v>337.83759999999984</v>
+        <v>267.21010000000001</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I8">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>45</v>
+      <c r="A9" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C9">
-        <v>1129.94</v>
+        <v>724.29</v>
       </c>
       <c r="D9">
         <f>ABS(C9-(6.1511*B9+348.6))</f>
-        <v>215.43880000000001</v>
+        <v>337.83759999999984</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I9">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10">
-        <v>1264.3399999999999</v>
+        <v>757.59</v>
       </c>
       <c r="D10">
         <f>ABS(C10-(6.1511*B10+348.6))</f>
-        <v>226.81679999999983</v>
+        <v>230.72439999999995</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
         <v>20</v>
       </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
       <c r="H10">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I10">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C11">
-        <v>808.85</v>
+        <v>771.81</v>
       </c>
       <c r="D11">
         <f>ABS(C11-(6.1511*B11+348.6))</f>
-        <v>284.03309999999999</v>
+        <v>50.42470000000003</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <f>SUM(E11:G11)</f>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>0.2</v>
-      </c>
-      <c r="J11">
-        <v>0.81</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="9">
-        <v>96</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1627.89</v>
+      <c r="A12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>803.62</v>
       </c>
       <c r="D12">
         <f>ABS(C12-(6.1511*B12+348.6))</f>
-        <v>688.78440000000012</v>
+        <v>129.33449999999993</v>
       </c>
       <c r="E12">
         <v>15</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>19</v>
-      </c>
-      <c r="H12" s="9">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>47</v>
       </c>
       <c r="I12">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="10">
-        <v>119</v>
-      </c>
-      <c r="C13" s="10">
-        <v>440.17</v>
+      <c r="A13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>828.46</v>
       </c>
       <c r="D13">
         <f>ABS(C13-(6.1511*B13+348.6))</f>
-        <v>640.41089999999986</v>
+        <v>42.983499999999935</v>
       </c>
       <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
         <v>14</v>
       </c>
-      <c r="F13">
-        <v>18</v>
-      </c>
       <c r="G13">
-        <v>23</v>
-      </c>
-      <c r="H13" s="10">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>37</v>
       </c>
       <c r="I13">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>35</v>
+      <c r="A14" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C14">
-        <v>1411.91</v>
+        <v>939.92</v>
       </c>
       <c r="D14">
         <f>ABS(C14-(6.1511*B14+348.6))</f>
-        <v>288.27140000000009</v>
+        <v>19.267699999999991</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I14">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>41</v>
+      <c r="A15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>1183.1199999999999</v>
+        <v>952.27</v>
       </c>
       <c r="D15">
         <f>ABS(C15-(6.1511*B15+348.6))</f>
-        <v>139.44569999999976</v>
+        <v>85.253200000000106</v>
       </c>
       <c r="E15">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F15">
+        <v>34</v>
+      </c>
+      <c r="G15">
         <v>24</v>
       </c>
-      <c r="G15">
-        <v>19</v>
-      </c>
       <c r="H15">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I15">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>37</v>
+      <c r="A16" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C16">
-        <v>641.14</v>
+        <v>1012.32</v>
       </c>
       <c r="D16">
         <f>ABS(C16-(6.1511*B16+348.6))</f>
-        <v>267.21010000000001</v>
+        <v>129.77189999999985</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I16">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -33893,333 +34842,333 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>57</v>
+      <c r="A18" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C18">
-        <v>803.62</v>
+        <v>1129.94</v>
       </c>
       <c r="D18">
         <f>ABS(C18-(6.1511*B18+348.6))</f>
-        <v>129.33449999999993</v>
+        <v>215.43880000000001</v>
       </c>
       <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
         <v>15</v>
       </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
       <c r="G18">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H18">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I18">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>43</v>
+      <c r="A19" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C19">
-        <v>939.92</v>
+        <v>1183.1199999999999</v>
       </c>
       <c r="D19">
         <f>ABS(C19-(6.1511*B19+348.6))</f>
-        <v>19.267699999999991</v>
+        <v>139.44569999999976</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H19">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I19">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="C20">
-        <v>771.81</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="D20">
         <f>ABS(C20-(6.1511*B20+348.6))</f>
-        <v>50.42470000000003</v>
+        <v>39.594800000000077</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G20">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I20">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C21">
-        <v>1266.79</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="D21">
         <f>ABS(C21-(6.1511*B21+348.6))</f>
-        <v>63.1871000000001</v>
+        <v>144.91469999999981</v>
       </c>
       <c r="E21">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G21">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I21">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>55</v>
+      <c r="A22" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C22">
-        <v>828.46</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="D22">
         <f>ABS(C22-(6.1511*B22+348.6))</f>
-        <v>42.983499999999935</v>
+        <v>226.81679999999983</v>
       </c>
       <c r="E22">
         <v>18</v>
       </c>
       <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
         <v>14</v>
       </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
       <c r="H22">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I22">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C23">
-        <v>1250.0999999999999</v>
+        <v>1266.79</v>
       </c>
       <c r="D23">
         <f>ABS(C23-(6.1511*B23+348.6))</f>
-        <v>144.91469999999981</v>
+        <v>63.1871000000001</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H23">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I23">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>58</v>
+      <c r="A24" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C24">
-        <v>757.59</v>
+        <v>1276.5</v>
       </c>
       <c r="D24">
         <f>ABS(C24-(6.1511*B24+348.6))</f>
-        <v>230.72439999999995</v>
+        <v>232.82569999999987</v>
       </c>
       <c r="E24">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I24">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="11">
-        <v>104</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1394.13</v>
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>137</v>
+      </c>
+      <c r="C25">
+        <v>1333.71</v>
       </c>
       <c r="D25">
         <f>ABS(C25-(6.1511*B25+348.6))</f>
-        <v>405.81560000000013</v>
+        <v>142.40930000000003</v>
       </c>
       <c r="E25">
         <v>17</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25" s="11">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>54</v>
       </c>
       <c r="I25">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26">
-        <v>137</v>
-      </c>
-      <c r="C26">
-        <v>1333.71</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="11">
+        <v>104</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1394.13</v>
       </c>
       <c r="D26">
         <f>ABS(C26-(6.1511*B26+348.6))</f>
-        <v>142.40930000000003</v>
+        <v>405.81560000000013</v>
       </c>
       <c r="E26">
         <v>17</v>
       </c>
       <c r="F26">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>15</v>
-      </c>
-      <c r="H26">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="H26" s="11">
+        <v>37</v>
       </c>
       <c r="I26">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>54</v>
+      <c r="A27" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B27">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C27">
-        <v>1200.1400000000001</v>
+        <v>1411.91</v>
       </c>
       <c r="D27">
         <f>ABS(C27-(6.1511*B27+348.6))</f>
-        <v>39.594800000000077</v>
+        <v>288.27140000000009</v>
       </c>
       <c r="E27">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H27">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I27">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>113</v>
-      </c>
-      <c r="C28">
-        <v>1276.5</v>
+        <v>49</v>
+      </c>
+      <c r="B28" s="9">
+        <v>96</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1627.89</v>
       </c>
       <c r="D28">
         <f>ABS(C28-(6.1511*B28+348.6))</f>
-        <v>232.82569999999987</v>
+        <v>688.78440000000012</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <v>58</v>
+        <v>19</v>
+      </c>
+      <c r="H28" s="9">
+        <v>51</v>
       </c>
       <c r="I28">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -34235,8 +35184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34262,8 +35211,8 @@
     <col min="20" max="20" width="20.453125" customWidth="1"/>
     <col min="21" max="21" width="20.36328125" customWidth="1"/>
     <col min="22" max="22" width="23.81640625" customWidth="1"/>
-    <col min="23" max="23" width="52.26953125" customWidth="1"/>
-    <col min="24" max="24" width="48.26953125" customWidth="1"/>
+    <col min="23" max="23" width="22.7265625" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="87" x14ac:dyDescent="0.35">
@@ -34319,7 +35268,7 @@
         <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>20</v>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{2C8B4593-02B3-49EF-B514-71AC2D5168E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22F36924-568C-41FE-BFCB-75E230DB6A8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B1562-735E-47B3-8F5F-0B71DA3DA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="4120" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
   <si>
     <t>Motrice</t>
   </si>
@@ -248,6 +248,12 @@
   <si>
     <t>CV taplen</t>
   </si>
+  <si>
+    <t>TPVDN</t>
+  </si>
+  <si>
+    <t>TPVUN</t>
+  </si>
 </sst>
 </file>
 
@@ -426,15 +432,52 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -814,23 +857,6 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -914,7 +940,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1022,7 +1048,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1034,82 +1060,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>15</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,82 +1147,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1127.92</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1250.0999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>828.46</c:v>
+                  <c:v>757.59</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1394.13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>803.62</c:v>
+                  <c:v>1333.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>757.59</c:v>
+                  <c:v>1200.1400000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>727.68</c:v>
+                  <c:v>1276.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,7 +1286,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="862478848"/>
@@ -1308,7 +1334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="922025712"/>
@@ -1356,7 +1382,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1368,521 +1394,6 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Réfléchit impulsif / VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.4844488188976382E-2"/>
-                  <c:y val="0.29998869932925043"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$C$2:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>1.8181818181818184E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.44318181818181818</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-96FB-4B04-BC86-8B68076DFED4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="870201088"/>
-        <c:axId val="1037082720"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="870201088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1037082720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1037082720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="870201088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1947,7 +1458,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2052,7 +1563,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2290,7 +1801,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064219632"/>
@@ -2338,7 +1849,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064209232"/>
@@ -2386,7 +1897,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2397,7 +1908,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2462,7 +1973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2567,7 +2078,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2805,7 +2316,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928867152"/>
@@ -2853,7 +2364,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928866320"/>
@@ -2901,7 +2412,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2912,7 +2423,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2977,7 +2488,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3270,7 +2781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062225856"/>
@@ -3318,7 +2829,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1062230016"/>
@@ -3366,7 +2877,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3377,7 +2888,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3442,7 +2953,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3547,7 +3058,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3749,7 +3260,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026527008"/>
@@ -3797,7 +3308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026522016"/>
@@ -3845,7 +3356,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3856,7 +3367,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3921,7 +3432,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4214,7 +3725,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004969120"/>
@@ -4262,7 +3773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004968704"/>
@@ -4310,7 +3821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4321,7 +3832,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4386,7 +3897,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4679,7 +4190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073921712"/>
@@ -4727,7 +4238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073925040"/>
@@ -4775,7 +4286,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4786,7 +4297,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4851,7 +4362,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5144,7 +4655,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064199248"/>
@@ -5192,7 +4703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064195920"/>
@@ -5240,7 +4751,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5251,7 +4762,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5316,7 +4827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5609,7 +5120,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141333232"/>
@@ -5657,7 +5168,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141327408"/>
@@ -5705,7 +5216,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5716,7 +5227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5781,7 +5292,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6074,7 +5585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064215056"/>
@@ -6122,7 +5633,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064202160"/>
@@ -6170,7 +5681,508 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Habile Maladroit / VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10172528433945757"/>
+                  <c:y val="0.28531969962088072"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$O$2:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>2.8409090909090908E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.43181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C925-4EFB-815C-C849CC6F8BC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1177713600"/>
+        <c:axId val="1177714016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1177713600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177714016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1177714016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177713600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6246,7 +6258,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6354,7 +6366,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6366,82 +6378,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="21">
                   <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6453,82 +6465,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1127.92</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1250.0999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>828.46</c:v>
+                  <c:v>757.59</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1394.13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>803.62</c:v>
+                  <c:v>1333.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>757.59</c:v>
+                  <c:v>1200.1400000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>727.68</c:v>
+                  <c:v>1276.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6592,7 +6604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868185120"/>
@@ -6640,7 +6652,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868184288"/>
@@ -6688,7 +6700,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6700,507 +6712,6 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Habile Maladroit / VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10172528433945757"/>
-                  <c:y val="0.28531969962088072"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$O$2:$O$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>2.8409090909090908E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.43181818181818182</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C925-4EFB-815C-C849CC6F8BC0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1177713600"/>
-        <c:axId val="1177714016"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1177713600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1177714016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1177714016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1177713600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7273,7 +6784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7552,7 +7063,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224624"/>
@@ -7600,7 +7111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224208"/>
@@ -7648,7 +7159,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7659,7 +7170,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7724,7 +7235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8017,7 +7528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005201104"/>
@@ -8065,7 +7576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005200688"/>
@@ -8113,7 +7624,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8124,7 +7635,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8197,7 +7708,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8490,7 +8001,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172488432"/>
@@ -8538,7 +8049,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172490096"/>
@@ -8586,7 +8097,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8597,7 +8108,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8662,7 +8173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8753,7 +8264,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8991,7 +8502,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935838816"/>
@@ -9039,7 +8550,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935818848"/>
@@ -9087,7 +8598,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9098,7 +8609,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9163,7 +8674,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9456,7 +8967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269003376"/>
@@ -9504,7 +9015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268997968"/>
@@ -9552,7 +9063,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9563,7 +9074,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9636,7 +9147,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9727,7 +9238,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9965,7 +9476,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177709440"/>
@@ -10013,7 +9524,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177690720"/>
@@ -10061,7 +9572,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10072,7 +9583,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -10137,7 +9648,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10242,7 +9753,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10480,7 +9991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076065200"/>
@@ -10528,7 +10039,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076060624"/>
@@ -10576,7 +10087,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10587,7 +10098,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -10652,7 +10163,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10945,7 +10456,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107543424"/>
@@ -10993,7 +10504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107533440"/>
@@ -11041,7 +10552,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11052,7 +10563,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -11117,7 +10628,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11410,7 +10921,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935840064"/>
@@ -11458,7 +10969,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935837152"/>
@@ -11506,7 +11017,516 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ouverture Fermeture à</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> l'éxpérience / </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16914523184601923"/>
+                  <c:y val="0.38122047244094487"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$Z$2:$Z$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>1.4772727272727272E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>5.6818181818181816E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B6F-4D5D-9E20-A5246AF8E29D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1172048944"/>
+        <c:axId val="1172069744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1172048944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172069744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1172069744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172048944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11582,7 +11602,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11676,7 +11696,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11688,82 +11708,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11775,82 +11795,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1127.92</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1250.0999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>828.46</c:v>
+                  <c:v>757.59</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1394.13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>803.62</c:v>
+                  <c:v>1333.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>757.59</c:v>
+                  <c:v>1200.1400000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>727.68</c:v>
+                  <c:v>1276.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11914,7 +11934,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528694832"/>
@@ -11962,7 +11982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528696496"/>
@@ -12010,516 +12030,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Ouverture Fermeture à</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> l'éxpérience / </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.16914523184601923"/>
-                  <c:y val="0.38122047244094487"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$Z$2:$Z$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>1.4772727272727272E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>5.6818181818181816E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6B6F-4D5D-9E20-A5246AF8E29D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1172048944"/>
-        <c:axId val="1172069744"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1172048944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1172069744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1172069744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1172048944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12595,7 +12106,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12689,7 +12200,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12704,79 +12215,79 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="21">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12788,82 +12299,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1127.92</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1250.0999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>828.46</c:v>
+                  <c:v>757.59</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1394.13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>803.62</c:v>
+                  <c:v>1333.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>757.59</c:v>
+                  <c:v>1200.1400000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>727.68</c:v>
+                  <c:v>1276.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12927,7 +12438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873249360"/>
@@ -12975,7 +12486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873251440"/>
@@ -13023,7 +12534,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13099,7 +12610,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13135,31 +12646,7 @@
             </c:spPr>
           </c:marker>
           <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-4B9E-49B8-B54B-3A12DD0DBEB6}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="0"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -13178,7 +12665,26 @@
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:dPt>
-            <c:idx val="22"/>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -13255,7 +12761,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13266,71 +12772,74 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>113</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>132</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>139</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>113</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13341,71 +12850,74 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>440.17</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1012.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1127.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1129.94</c:v>
+                  <c:v>803.62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1183.1199999999999</c:v>
+                  <c:v>939.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1200.1400000000001</c:v>
+                  <c:v>771.81</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1250.0999999999999</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1266.79</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>1276.5</c:v>
+                  <c:v>757.59</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13470,7 +12982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026464208"/>
@@ -13518,7 +13030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026466704"/>
@@ -13566,7 +13078,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13642,7 +13154,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13747,7 +13259,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13758,80 +13270,80 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>92</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>113</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13843,82 +13355,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13983,7 +13495,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760381464"/>
@@ -14031,7 +13543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760378184"/>
@@ -14079,7 +13591,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14155,7 +13667,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14191,7 +13703,7 @@
             </c:spPr>
           </c:marker>
           <c:dPt>
-            <c:idx val="24"/>
+            <c:idx val="23"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -14268,7 +13780,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -14279,80 +13791,80 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1244.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>440.17</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1012.32</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1127.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1129.94</c:v>
+                  <c:v>803.62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1183.1199999999999</c:v>
+                  <c:v>939.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1411.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14364,82 +13876,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14503,7 +14015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="709100703"/>
@@ -14551,7 +14063,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="709099871"/>
@@ -14599,7 +14111,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14611,406 +14123,6 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>CV/ Impulsivité motrice</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.56987051618547679"/>
-                  <c:y val="1.8579396325459317E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>BPS!$E$2:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>BPS!$K$2:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41B0-4272-AD35-8A47A270F57E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2047136991"/>
-        <c:axId val="2047159455"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2047136991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2047159455"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2047159455"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2047136991"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -15075,7 +14187,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15180,7 +14292,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -15418,7 +14530,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005130992"/>
@@ -15466,7 +14578,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005131408"/>
@@ -15514,7 +14626,522 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Réfléchit impulsif / VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.4844488188976382E-2"/>
+                  <c:y val="0.29998869932925043"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>1.8181818181818184E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.44318181818181818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96FB-4B04-BC86-8B68076DFED4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="870201088"/>
+        <c:axId val="1037082720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="870201088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037082720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1037082720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870201088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16445,46 +16072,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -28593,7 +28180,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29109,7 +28696,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29625,7 +29212,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30141,7 +29728,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30657,7 +30244,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -31173,7 +30760,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -31689,536 +31276,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>729797</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>151493</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521154</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>51707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>36286</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>154214</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>589643</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32246,15 +31317,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>10432</xdr:colOff>
+      <xdr:colOff>391432</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>137886</xdr:rowOff>
+      <xdr:rowOff>156028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>45357</xdr:colOff>
+      <xdr:colOff>426357</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>45356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32281,16 +31352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471714</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>154214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>322036</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>78922</xdr:rowOff>
+      <xdr:rowOff>106136</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32438,8 +31509,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>715818</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32459,42 +31530,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>721179</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>78922</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93A2B25-CB22-4F67-BDD1-F8334D9539E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -33301,16 +32336,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C582091B-F7A0-4A99-B0D9-B71221337C61}" name="Tableau3" displayName="Tableau3" ref="A1:H27" totalsRowShown="0">
+  <autoFilter ref="A1:H27" xr:uid="{C582091B-F7A0-4A99-B0D9-B71221337C61}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
+    <sortCondition ref="A1:A27"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F54F0C8C-2076-4A61-AE16-18A827F212DF}" name="Colonne1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{BD667728-D6B6-42B4-8FEC-C363F347CABC}" name="Motrice"/>
+    <tableColumn id="3" xr3:uid="{090B82D9-34A0-47DB-BBC2-EBFF78F2A348}" name="Cognitive"/>
+    <tableColumn id="4" xr3:uid="{D45F49B8-FDB2-4871-B181-96D2B3D0AD51}" name="Non-Planning"/>
+    <tableColumn id="5" xr3:uid="{FE25111A-10B8-428C-8CCA-DF5639BF9E77}" name="Total"/>
+    <tableColumn id="6" xr3:uid="{09CA9587-3F0F-4682-BD7D-D035F85422D2}" name="VMN"/>
+    <tableColumn id="7" xr3:uid="{3D2CADA8-7AAC-4CD0-BE82-D1827E3D9A4C}" name="TPVDN"/>
+    <tableColumn id="8" xr3:uid="{241F374D-960A-4D63-87EA-CE91FBD1A785}" name="TPVUN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:N28" totalsRowShown="0">
   <autoFilter ref="A1:N28" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N28">
-    <sortCondition ref="K1:K28"/>
+    <sortCondition ref="A1:A28"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{6453D9EA-F9CB-471D-8404-471B3F332756}" name="score"/>
     <tableColumn id="3" xr3:uid="{AA2EF9DD-2192-48E0-8BEC-D975F28D10E6}" name="VMN"/>
-    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)" dataDxfId="27">
+    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)" dataDxfId="0">
       <calculatedColumnFormula>ABS(C2-(6.1511*B2+348.6))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{E3E80936-5487-47DE-8A1C-072E65F3217E}" name="Motrice"/>
@@ -33328,39 +32383,39 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AA27" totalsRowShown="0" headerRowDxfId="26">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AA27" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:AA27" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA27">
     <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="25"/>
-    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="28"/>
+    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="3"/>
     <tableColumn id="25" xr3:uid="{D6260960-9238-4F09-91AD-EDE247C55825}" name="VMN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -33666,16 +32721,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012EDC3-90BA-420E-8C93-D3C748D2357F}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -33692,30 +32751,36 @@
         <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <f>3+4+4+4+0+1+1+0+1+4+0</f>
+        <v>17</v>
+      </c>
+      <c r="D2">
         <v>22</v>
       </c>
-      <c r="D2">
-        <f>3+0+3+1+3+4+0+1+3+0+3+1</f>
-        <v>22</v>
-      </c>
       <c r="E2">
-        <f>SUM(B2:D2)</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>808.85</v>
+        <v>727.68</v>
+      </c>
+      <c r="G2">
+        <v>0.48697176452987984</v>
+      </c>
+      <c r="H2">
+        <v>0.43788391930139975</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -33731,27 +32796,29 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>28</v>
+      <c r="A3" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B3">
-        <f>2+3+3+2+2+2+3+1+4+3+2</f>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <f>2+3+2+2+4+2+3+2+2+3+2</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <f>3+2+1+4+3+1+1+1+1+1+2+3</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <f>SUM(B3:D3)</f>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>1244.5</v>
+        <v>555.07000000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.42523776151081644</v>
+      </c>
+      <c r="H3">
+        <v>0.31884878539456574</v>
       </c>
       <c r="O3">
         <v>0.46</v>
@@ -33768,22 +32835,32 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <f>2+3+3+2+2+2+3+1+4+3+2</f>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <f>2+3+2+2+4+2+3+2+2+3+2</f>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <f>3+2+1+4+3+1+1+1+1+1+2+3</f>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <f>SUM(B4:D4)</f>
+        <v>77</v>
       </c>
       <c r="F4">
-        <v>1127.92</v>
+        <v>1244.5</v>
+      </c>
+      <c r="G4">
+        <v>0.53721600055204066</v>
+      </c>
+      <c r="H4">
+        <v>0.51825781535814563</v>
       </c>
       <c r="O4" s="2">
         <v>0.36249999999999999</v>
@@ -33799,383 +32876,386 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
+      <c r="A5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F5">
-        <v>1250.0999999999999</v>
+        <v>952.27</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
+      <c r="A6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F6">
-        <v>1411.91</v>
+        <v>1012.32</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>36</v>
       </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>71</v>
-      </c>
       <c r="F7">
-        <v>1266.79</v>
+        <v>724.29</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>641.14</v>
+        <v>1129.94</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F9">
-        <v>1012.32</v>
+        <v>1264.3399999999999</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>39</v>
+      <c r="A10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <f>3+4+4+4+0+1+1+0+1+4+0</f>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <f>3+0+3+1+3+4+0+1+3+0+3+1</f>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>79</v>
+        <f>SUM(B10:D10)</f>
+        <v>59</v>
       </c>
       <c r="F10">
-        <v>952.27</v>
+        <v>808.85</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
+      <c r="A11" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F11">
-        <v>1276.5</v>
+        <v>1627.89</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
+      <c r="A12" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F12">
-        <v>1183.1199999999999</v>
+        <v>440.17</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>42</v>
+      <c r="A13" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F13">
-        <v>771.81</v>
+        <v>1411.91</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F14">
-        <v>939.92</v>
+        <v>1183.1199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
+      <c r="A15" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15">
-        <v>1333.71</v>
+        <v>641.14</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>45</v>
+      <c r="A16" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F16">
-        <v>1129.94</v>
+        <v>1127.92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>46</v>
+      <c r="A17" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>18</v>
       </c>
-      <c r="D17">
-        <v>23</v>
-      </c>
       <c r="E17">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F17">
-        <v>440.17</v>
+        <v>803.62</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>724.29</v>
+        <v>939.92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
         <v>17</v>
       </c>
-      <c r="C19">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F19">
-        <v>555.07000000000005</v>
+        <v>771.81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>49</v>
+      <c r="A20" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F20">
-        <v>1627.89</v>
+        <v>1266.79</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>50</v>
+      <c r="A21" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F21">
-        <v>1264.3399999999999</v>
+        <v>828.46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F22">
-        <v>1200.1400000000001</v>
+        <v>1250.0999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>55</v>
+      <c r="A23" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F23">
-        <v>828.46</v>
+        <v>757.59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -34199,68 +33279,71 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>57</v>
+      <c r="A25" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
         <v>15</v>
       </c>
-      <c r="C25">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>18</v>
-      </c>
       <c r="E25">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F25">
-        <v>803.62</v>
+        <v>1333.71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
         <v>22</v>
       </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
       <c r="E26">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F26">
-        <v>757.59</v>
+        <v>1200.1400000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>59</v>
+      <c r="A27" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27">
-        <v>727.68</v>
+        <v>1276.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -34268,8 +33351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" activeCellId="1" sqref="C3:C28 B3:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34323,492 +33407,492 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="8">
-        <v>103</v>
-      </c>
-      <c r="C2">
-        <v>727.68</v>
-      </c>
-      <c r="D2" s="8">
-        <f>ABS(C2-(6.1511*B2+348.6))</f>
-        <v>254.48329999999999</v>
-      </c>
-      <c r="E2">
+      <c r="A2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="8">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="8">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>56</v>
-      </c>
-      <c r="I2">
-        <v>0.19</v>
-      </c>
-      <c r="J2">
-        <v>0.64</v>
-      </c>
-      <c r="K2">
-        <v>0.06</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="H2" s="8">
+        <v>53</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="16">
         <v>0.38</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="8">
+        <v>103</v>
+      </c>
+      <c r="C3">
+        <v>727.68</v>
+      </c>
+      <c r="D3" s="8">
+        <f>ABS(C3-(6.1511*B3+348.6))</f>
+        <v>254.48329999999999</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>0.19</v>
+      </c>
+      <c r="J3">
+        <v>0.64</v>
+      </c>
+      <c r="K3">
+        <v>0.06</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="12">
+        <v>104</v>
+      </c>
+      <c r="C4" s="12">
+        <v>555.07000000000005</v>
+      </c>
+      <c r="D4">
+        <f>ABS(C4-(6.1511*B4+348.6))</f>
+        <v>433.24439999999993</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4" s="12">
+        <v>67</v>
+      </c>
+      <c r="I4">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <f>3+6+2+2+4+2+6+4+5+4+3+3+5+3+7+2+4+5+2+6+5+2+4+4+2+5+6+1</f>
         <v>107</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>1244.5</v>
-      </c>
-      <c r="D3">
-        <f>ABS(C3-(6.1511*B3+348.6))</f>
-        <v>237.73230000000001</v>
-      </c>
-      <c r="E3">
-        <v>27</v>
-      </c>
-      <c r="F3">
-        <v>27</v>
-      </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <f>SUM(E3:G3)</f>
-        <v>77</v>
-      </c>
-      <c r="I3">
-        <v>0.19</v>
-      </c>
-      <c r="J3">
-        <v>0.66</v>
-      </c>
-      <c r="K3">
-        <v>0.18</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="8">
-        <v>19</v>
-      </c>
-      <c r="F4" s="8">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8">
-        <v>17</v>
-      </c>
-      <c r="H4" s="8">
-        <v>53</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="16">
-        <v>0.38</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
-        <v>121</v>
-      </c>
-      <c r="C5">
-        <v>808.85</v>
       </c>
       <c r="D5">
         <f>ABS(C5-(6.1511*B5+348.6))</f>
-        <v>284.03309999999999</v>
+        <v>237.73230000000001</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <f>SUM(E5:G5)</f>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="J5">
-        <v>0.81</v>
+        <v>0.66</v>
       </c>
       <c r="K5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="M5" s="11">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="10">
-        <v>119</v>
-      </c>
-      <c r="C6" s="10">
-        <v>440.17</v>
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>112</v>
+      </c>
+      <c r="C6">
+        <v>952.27</v>
       </c>
       <c r="D6">
         <f>ABS(C6-(6.1511*B6+348.6))</f>
-        <v>640.41089999999986</v>
+        <v>85.253200000000106</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>23</v>
-      </c>
-      <c r="H6" s="10">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>79</v>
       </c>
       <c r="I6">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="12">
-        <v>104</v>
-      </c>
-      <c r="C7" s="12">
-        <v>555.07000000000005</v>
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>129</v>
+      </c>
+      <c r="C7">
+        <v>1012.32</v>
       </c>
       <c r="D7">
         <f>ABS(C7-(6.1511*B7+348.6))</f>
-        <v>433.24439999999993</v>
+        <v>129.77189999999985</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>26</v>
       </c>
       <c r="G7">
-        <v>24</v>
-      </c>
-      <c r="H7" s="12">
-        <v>67</v>
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>73</v>
       </c>
       <c r="I7">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>37</v>
+      <c r="A8" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C8">
-        <v>641.14</v>
+        <v>724.29</v>
       </c>
       <c r="D8">
         <f>ABS(C8-(6.1511*B8+348.6))</f>
-        <v>267.21010000000001</v>
+        <v>337.83759999999984</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I8">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>47</v>
+      <c r="A9" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B9">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C9">
-        <v>724.29</v>
+        <v>1129.94</v>
       </c>
       <c r="D9">
         <f>ABS(C9-(6.1511*B9+348.6))</f>
-        <v>337.83759999999984</v>
+        <v>215.43880000000001</v>
       </c>
       <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
         <v>13</v>
       </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
       <c r="H9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C10">
-        <v>757.59</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="D10">
         <f>ABS(C10-(6.1511*B10+348.6))</f>
-        <v>230.72439999999995</v>
+        <v>226.81679999999983</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H10">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I10">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
+        <v>121</v>
       </c>
       <c r="C11">
-        <v>771.81</v>
+        <v>808.85</v>
       </c>
       <c r="D11">
         <f>ABS(C11-(6.1511*B11+348.6))</f>
-        <v>50.42470000000003</v>
+        <v>284.03309999999999</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <f>SUM(E11:G11)</f>
+        <v>59</v>
       </c>
       <c r="I11">
-        <v>0.24</v>
+        <v>0.2</v>
+      </c>
+      <c r="J11">
+        <v>0.81</v>
+      </c>
+      <c r="K11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.47</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12">
-        <v>95</v>
-      </c>
-      <c r="C12">
-        <v>803.62</v>
+      <c r="A12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="9">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1627.89</v>
       </c>
       <c r="D12">
         <f>ABS(C12-(6.1511*B12+348.6))</f>
-        <v>129.33449999999993</v>
+        <v>688.78440000000012</v>
       </c>
       <c r="E12">
         <v>15</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="H12" s="9">
+        <v>51</v>
       </c>
       <c r="I12">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13">
-        <v>85</v>
-      </c>
-      <c r="C13">
-        <v>828.46</v>
+      <c r="A13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10">
+        <v>119</v>
+      </c>
+      <c r="C13" s="10">
+        <v>440.17</v>
       </c>
       <c r="D13">
         <f>ABS(C13-(6.1511*B13+348.6))</f>
-        <v>42.983499999999935</v>
+        <v>640.41089999999986</v>
       </c>
       <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
         <v>18</v>
       </c>
-      <c r="F13">
-        <v>14</v>
-      </c>
       <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="H13" s="10">
+        <v>55</v>
       </c>
       <c r="I13">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>43</v>
+      <c r="A14" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C14">
-        <v>939.92</v>
+        <v>1411.91</v>
       </c>
       <c r="D14">
         <f>ABS(C14-(6.1511*B14+348.6))</f>
-        <v>19.267699999999991</v>
+        <v>288.27140000000009</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I14">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
+      <c r="A15" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B15">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15">
-        <v>952.27</v>
+        <v>1183.1199999999999</v>
       </c>
       <c r="D15">
         <f>ABS(C15-(6.1511*B15+348.6))</f>
-        <v>85.253200000000106</v>
+        <v>139.44569999999976</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F15">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I15">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
+      <c r="A16" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C16">
-        <v>1012.32</v>
+        <v>641.14</v>
       </c>
       <c r="D16">
         <f>ABS(C16-(6.1511*B16+348.6))</f>
-        <v>129.77189999999985</v>
+        <v>267.21010000000001</v>
       </c>
       <c r="E16">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F16">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I16">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -34842,333 +33926,333 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
+      <c r="A18" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C18">
-        <v>1129.94</v>
+        <v>803.62</v>
       </c>
       <c r="D18">
         <f>ABS(C18-(6.1511*B18+348.6))</f>
-        <v>215.43880000000001</v>
+        <v>129.33449999999993</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I18">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>41</v>
+      <c r="A19" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C19">
-        <v>1183.1199999999999</v>
+        <v>939.92</v>
       </c>
       <c r="D19">
         <f>ABS(C19-(6.1511*B19+348.6))</f>
-        <v>139.44569999999976</v>
+        <v>19.267699999999991</v>
       </c>
       <c r="E19">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I19">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B20">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="C20">
-        <v>1200.1400000000001</v>
+        <v>771.81</v>
       </c>
       <c r="D20">
         <f>ABS(C20-(6.1511*B20+348.6))</f>
-        <v>39.594800000000077</v>
+        <v>50.42470000000003</v>
       </c>
       <c r="E20">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H20">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I20">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C21">
-        <v>1250.0999999999999</v>
+        <v>1266.79</v>
       </c>
       <c r="D21">
         <f>ABS(C21-(6.1511*B21+348.6))</f>
-        <v>144.91469999999981</v>
+        <v>63.1871000000001</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F21">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H21">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I21">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
+      <c r="A22" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C22">
-        <v>1264.3399999999999</v>
+        <v>828.46</v>
       </c>
       <c r="D22">
         <f>ABS(C22-(6.1511*B22+348.6))</f>
-        <v>226.81679999999983</v>
+        <v>42.983499999999935</v>
       </c>
       <c r="E22">
         <v>18</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I22">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C23">
-        <v>1266.79</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="D23">
         <f>ABS(C23-(6.1511*B23+348.6))</f>
-        <v>63.1871000000001</v>
+        <v>144.91469999999981</v>
       </c>
       <c r="E23">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H23">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I23">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
-        <v>40</v>
+      <c r="A24" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C24">
-        <v>1276.5</v>
+        <v>757.59</v>
       </c>
       <c r="D24">
         <f>ABS(C24-(6.1511*B24+348.6))</f>
-        <v>232.82569999999987</v>
+        <v>230.72439999999995</v>
       </c>
       <c r="E24">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I24">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25">
-        <v>137</v>
-      </c>
-      <c r="C25">
-        <v>1333.71</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="11">
+        <v>104</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1394.13</v>
       </c>
       <c r="D25">
         <f>ABS(C25-(6.1511*B25+348.6))</f>
-        <v>142.40930000000003</v>
+        <v>405.81560000000013</v>
       </c>
       <c r="E25">
         <v>17</v>
       </c>
       <c r="F25">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>15</v>
-      </c>
-      <c r="H25">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="H25" s="11">
+        <v>37</v>
       </c>
       <c r="I25">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="11">
-        <v>104</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1394.13</v>
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>137</v>
+      </c>
+      <c r="C26">
+        <v>1333.71</v>
       </c>
       <c r="D26">
         <f>ABS(C26-(6.1511*B26+348.6))</f>
-        <v>405.81560000000013</v>
+        <v>142.40930000000003</v>
       </c>
       <c r="E26">
         <v>17</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G26">
-        <v>10</v>
-      </c>
-      <c r="H26" s="11">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>54</v>
       </c>
       <c r="I26">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>35</v>
+      <c r="A27" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C27">
-        <v>1411.91</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="D27">
         <f>ABS(C27-(6.1511*B27+348.6))</f>
-        <v>288.27140000000009</v>
+        <v>39.594800000000077</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H27">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I27">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="9">
-        <v>96</v>
-      </c>
-      <c r="C28" s="9">
-        <v>1627.89</v>
+      <c r="A28" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>113</v>
+      </c>
+      <c r="C28">
+        <v>1276.5</v>
       </c>
       <c r="D28">
         <f>ABS(C28-(6.1511*B28+348.6))</f>
-        <v>688.78440000000012</v>
+        <v>232.82569999999987</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G28">
-        <v>19</v>
-      </c>
-      <c r="H28" s="9">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>58</v>
       </c>
       <c r="I28">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -35184,7 +34268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B1562-735E-47B3-8F5F-0B71DA3DA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C34179-D454-46AA-9542-D195D0902EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView minimized="1" xWindow="10590" yWindow="2730" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
   <si>
     <t>Motrice</t>
   </si>
@@ -254,6 +254,9 @@
   <si>
     <t>TPVUN</t>
   </si>
+  <si>
+    <t>difftaplen</t>
+  </si>
 </sst>
 </file>
 
@@ -398,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -432,52 +435,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -857,6 +824,43 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -12663,9 +12667,14 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-AFA6-4873-85B0-95B6D1E6F9A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="9"/>
+            <c:idx val="10"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -12684,7 +12693,7 @@
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:dPt>
-            <c:idx val="21"/>
+            <c:idx val="18"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -12776,70 +12785,67 @@
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12851,73 +12857,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>555.07000000000005</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="19">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1333.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13270,80 +13273,80 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>116</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>103</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>137</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>132</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13355,82 +13358,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13703,7 +13706,7 @@
             </c:spPr>
           </c:marker>
           <c:dPt>
-            <c:idx val="23"/>
+            <c:idx val="2"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -13791,80 +13794,80 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>724.29</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>555.07000000000005</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1200.1400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13876,82 +13879,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31429,16 +31432,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>555626</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>229054</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
+      <xdr:rowOff>98134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>714376</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31501,16 +31504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80241</xdr:rowOff>
+      <xdr:rowOff>143740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>715818</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>181428</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>579747</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63498</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32342,7 +32345,7 @@
     <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F54F0C8C-2076-4A61-AE16-18A827F212DF}" name="Colonne1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F54F0C8C-2076-4A61-AE16-18A827F212DF}" name="Colonne1" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{BD667728-D6B6-42B4-8FEC-C363F347CABC}" name="Motrice"/>
     <tableColumn id="3" xr3:uid="{090B82D9-34A0-47DB-BBC2-EBFF78F2A348}" name="Cognitive"/>
     <tableColumn id="4" xr3:uid="{D45F49B8-FDB2-4871-B181-96D2B3D0AD51}" name="Non-Planning"/>
@@ -32356,16 +32359,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:N28" totalsRowShown="0">
-  <autoFilter ref="A1:N28" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:O28" totalsRowShown="0">
+  <autoFilter ref="A1:O28" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N28">
-    <sortCondition ref="A1:A28"/>
+    <sortCondition ref="H1:H28"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="1"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{6453D9EA-F9CB-471D-8404-471B3F332756}" name="score"/>
     <tableColumn id="3" xr3:uid="{AA2EF9DD-2192-48E0-8BEC-D975F28D10E6}" name="VMN"/>
-    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)" dataDxfId="27">
       <calculatedColumnFormula>ABS(C2-(6.1511*B2+348.6))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{E3E80936-5487-47DE-8A1C-072E65F3217E}" name="Motrice"/>
@@ -32378,44 +32381,45 @@
     <tableColumn id="14" xr3:uid="{19A2F9EA-9DB0-4715-9505-E91965026DEF}" name="nb erreur Go no Go"/>
     <tableColumn id="12" xr3:uid="{056FB755-C795-401E-A7FC-CA77629D5450}" name="RT"/>
     <tableColumn id="13" xr3:uid="{16FAAFBD-3517-466B-A7B5-461A2984E740}" name="CV taplen"/>
+    <tableColumn id="15" xr3:uid="{69A0D990-83DC-43F0-A51E-8854E2DCFD59}" name="difftaplen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AA27" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AA27" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A1:AA27" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA27">
     <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="28"/>
-    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="25"/>
+    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="0"/>
     <tableColumn id="25" xr3:uid="{D6260960-9238-4F09-91AD-EDE247C55825}" name="VMN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -32721,7 +32725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012EDC3-90BA-420E-8C93-D3C748D2357F}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -33349,11 +33353,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" activeCellId="1" sqref="C3:C28 B3:B28"/>
+      <selection pane="topRight" activeCell="H19" activeCellId="5" sqref="O12 O15 O19 H12 H15 H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33362,7 +33366,7 @@
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -33405,854 +33409,865 @@
       <c r="N1" t="s">
         <v>69</v>
       </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="8">
-        <v>19</v>
-      </c>
-      <c r="F2" s="8">
-        <v>17</v>
-      </c>
-      <c r="G2" s="8">
-        <v>17</v>
-      </c>
-      <c r="H2" s="8">
-        <v>53</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="16">
-        <v>0.38</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0.09</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>116</v>
+      </c>
+      <c r="C2">
+        <v>724.29</v>
+      </c>
+      <c r="D2">
+        <f>ABS(C2-(6.1511*B2+348.6))</f>
+        <v>337.83759999999984</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="8">
-        <v>103</v>
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>727.68</v>
-      </c>
-      <c r="D3" s="8">
+        <v>828.46</v>
+      </c>
+      <c r="D3">
         <f>ABS(C3-(6.1511*B3+348.6))</f>
-        <v>254.48329999999999</v>
+        <v>42.983499999999935</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>0.19</v>
       </c>
-      <c r="J3">
-        <v>0.64</v>
-      </c>
-      <c r="K3">
-        <v>0.06</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.38</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="12">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="11">
         <v>104</v>
       </c>
-      <c r="C4" s="12">
-        <v>555.07000000000005</v>
+      <c r="C4" s="11">
+        <v>1394.13</v>
       </c>
       <c r="D4">
         <f>ABS(C4-(6.1511*B4+348.6))</f>
-        <v>433.24439999999993</v>
+        <v>405.81560000000013</v>
       </c>
       <c r="E4">
         <v>17</v>
       </c>
       <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>1129.94</v>
+      </c>
+      <c r="D5">
+        <f>ABS(C5-(6.1511*B5+348.6))</f>
+        <v>215.43880000000001</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>939.92</v>
+      </c>
+      <c r="D6">
+        <f>ABS(C6-(6.1511*B6+348.6))</f>
+        <v>19.267699999999991</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>803.62</v>
+      </c>
+      <c r="D7">
+        <f>ABS(C7-(6.1511*B7+348.6))</f>
+        <v>129.33449999999993</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>771.81</v>
+      </c>
+      <c r="D8">
+        <f>ABS(C8-(6.1511*B8+348.6))</f>
+        <v>50.42470000000003</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9">
+        <v>96</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1627.89</v>
+      </c>
+      <c r="D9">
+        <f>ABS(C9-(6.1511*B9+348.6))</f>
+        <v>688.78440000000012</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9">
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>641.14</v>
+      </c>
+      <c r="D10">
+        <f>ABS(C10-(6.1511*B10+348.6))</f>
+        <v>267.21010000000001</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>51</v>
+      </c>
+      <c r="I10">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>112</v>
+      </c>
+      <c r="C11">
+        <v>1264.3399999999999</v>
+      </c>
+      <c r="D11">
+        <f>ABS(C11-(6.1511*B11+348.6))</f>
+        <v>226.81679999999983</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>52</v>
+      </c>
+      <c r="I11">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="8">
+        <v>107</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="8">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8">
+        <v>17</v>
+      </c>
+      <c r="G12" s="8">
+        <v>17</v>
+      </c>
+      <c r="H12" s="8">
+        <v>53</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="O12">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>1333.71</v>
+      </c>
+      <c r="D13">
+        <f>ABS(C13-(6.1511*B13+348.6))</f>
+        <v>985.11</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>54</v>
+      </c>
+      <c r="I13">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10">
+        <v>119</v>
+      </c>
+      <c r="C14" s="10">
+        <v>440.17</v>
+      </c>
+      <c r="D14">
+        <f>ABS(C14-(6.1511*B14+348.6))</f>
+        <v>640.41089999999986</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14" s="10">
+        <v>55</v>
+      </c>
+      <c r="I14">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="8">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>727.68</v>
+      </c>
+      <c r="D15" s="8">
+        <f>ABS(C15-(6.1511*B15+348.6))</f>
+        <v>254.48329999999999</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>0.19</v>
+      </c>
+      <c r="J15">
+        <v>0.64</v>
+      </c>
+      <c r="K15">
+        <v>0.06</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.38</v>
+      </c>
+      <c r="O15">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>1127.92</v>
+      </c>
+      <c r="D16">
+        <f>ABS(C16-(6.1511*B16+348.6))</f>
+        <v>41.188000000000102</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
         <v>26</v>
       </c>
-      <c r="G4">
+      <c r="H16">
+        <v>56</v>
+      </c>
+      <c r="I16">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>1250.0999999999999</v>
+      </c>
+      <c r="D17">
+        <f>ABS(C17-(6.1511*B17+348.6))</f>
+        <v>144.91469999999981</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>58</v>
+      </c>
+      <c r="I17">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>113</v>
+      </c>
+      <c r="C18">
+        <v>1276.5</v>
+      </c>
+      <c r="D18">
+        <f>ABS(C18-(6.1511*B18+348.6))</f>
+        <v>232.82569999999987</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>58</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>808.85</v>
+      </c>
+      <c r="D19">
+        <f>ABS(C19-(6.1511*B19+348.6))</f>
+        <v>284.03309999999999</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <f>SUM(E19:G19)</f>
+        <v>59</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+      <c r="J19">
+        <v>0.81</v>
+      </c>
+      <c r="K19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="O19">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>126</v>
+      </c>
+      <c r="C20">
+        <v>1411.91</v>
+      </c>
+      <c r="D20">
+        <f>ABS(C20-(6.1511*B20+348.6))</f>
+        <v>288.27140000000009</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20">
         <v>24</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H20">
+        <v>63</v>
+      </c>
+      <c r="I20">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>104</v>
+      </c>
+      <c r="C21">
+        <v>757.59</v>
+      </c>
+      <c r="D21">
+        <f>ABS(C21-(6.1511*B21+348.6))</f>
+        <v>230.72439999999995</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>63</v>
+      </c>
+      <c r="I21">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="12">
+        <v>104</v>
+      </c>
+      <c r="C22" s="12">
+        <v>555.07000000000005</v>
+      </c>
+      <c r="D22">
+        <f>ABS(C22-(6.1511*B22+348.6))</f>
+        <v>433.24439999999993</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22" s="12">
         <v>67</v>
       </c>
-      <c r="I4">
+      <c r="I22">
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>132</v>
+      </c>
+      <c r="C23">
+        <v>1200.1400000000001</v>
+      </c>
+      <c r="D23">
+        <f>ABS(C23-(6.1511*B23+348.6))</f>
+        <v>39.594800000000077</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <v>68</v>
+      </c>
+      <c r="I23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>113</v>
+      </c>
+      <c r="C24">
+        <v>1183.1199999999999</v>
+      </c>
+      <c r="D24">
+        <f>ABS(C24-(6.1511*B24+348.6))</f>
+        <v>139.44569999999976</v>
+      </c>
+      <c r="E24">
         <v>28</v>
       </c>
-      <c r="B5">
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>71</v>
+      </c>
+      <c r="I24">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>139</v>
+      </c>
+      <c r="C25">
+        <v>1266.79</v>
+      </c>
+      <c r="D25">
+        <f>ABS(C25-(6.1511*B25+348.6))</f>
+        <v>63.1871000000001</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+      <c r="H25">
+        <v>71</v>
+      </c>
+      <c r="I25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>129</v>
+      </c>
+      <c r="C26">
+        <v>1012.32</v>
+      </c>
+      <c r="D26">
+        <f>ABS(C26-(6.1511*B26+348.6))</f>
+        <v>129.77189999999985</v>
+      </c>
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>73</v>
+      </c>
+      <c r="I26">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
         <f>3+6+2+2+4+2+6+4+5+4+3+3+5+3+7+2+4+5+2+6+5+2+4+4+2+5+6+1</f>
         <v>107</v>
       </c>
-      <c r="C5">
+      <c r="C27">
         <v>1244.5</v>
-      </c>
-      <c r="D5">
-        <f>ABS(C5-(6.1511*B5+348.6))</f>
-        <v>237.73230000000001</v>
-      </c>
-      <c r="E5">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>27</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <f>SUM(E5:G5)</f>
-        <v>77</v>
-      </c>
-      <c r="I5">
-        <v>0.19</v>
-      </c>
-      <c r="J5">
-        <v>0.66</v>
-      </c>
-      <c r="K5">
-        <v>0.18</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>112</v>
-      </c>
-      <c r="C6">
-        <v>952.27</v>
-      </c>
-      <c r="D6">
-        <f>ABS(C6-(6.1511*B6+348.6))</f>
-        <v>85.253200000000106</v>
-      </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
-      </c>
-      <c r="H6">
-        <v>79</v>
-      </c>
-      <c r="I6">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>129</v>
-      </c>
-      <c r="C7">
-        <v>1012.32</v>
-      </c>
-      <c r="D7">
-        <f>ABS(C7-(6.1511*B7+348.6))</f>
-        <v>129.77189999999985</v>
-      </c>
-      <c r="E7">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>26</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>73</v>
-      </c>
-      <c r="I7">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>116</v>
-      </c>
-      <c r="C8">
-        <v>724.29</v>
-      </c>
-      <c r="D8">
-        <f>ABS(C8-(6.1511*B8+348.6))</f>
-        <v>337.83759999999984</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>36</v>
-      </c>
-      <c r="I8">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>92</v>
-      </c>
-      <c r="C9">
-        <v>1129.94</v>
-      </c>
-      <c r="D9">
-        <f>ABS(C9-(6.1511*B9+348.6))</f>
-        <v>215.43880000000001</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>40</v>
-      </c>
-      <c r="I9">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>112</v>
-      </c>
-      <c r="C10">
-        <v>1264.3399999999999</v>
-      </c>
-      <c r="D10">
-        <f>ABS(C10-(6.1511*B10+348.6))</f>
-        <v>226.81679999999983</v>
-      </c>
-      <c r="E10">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>52</v>
-      </c>
-      <c r="I10">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
-        <v>121</v>
-      </c>
-      <c r="C11">
-        <v>808.85</v>
-      </c>
-      <c r="D11">
-        <f>ABS(C11-(6.1511*B11+348.6))</f>
-        <v>284.03309999999999</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>22</v>
-      </c>
-      <c r="G11">
-        <v>22</v>
-      </c>
-      <c r="H11">
-        <f>SUM(E11:G11)</f>
-        <v>59</v>
-      </c>
-      <c r="I11">
-        <v>0.2</v>
-      </c>
-      <c r="J11">
-        <v>0.81</v>
-      </c>
-      <c r="K11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="9">
-        <v>96</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1627.89</v>
-      </c>
-      <c r="D12">
-        <f>ABS(C12-(6.1511*B12+348.6))</f>
-        <v>688.78440000000012</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>19</v>
-      </c>
-      <c r="H12" s="9">
-        <v>51</v>
-      </c>
-      <c r="I12">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="10">
-        <v>119</v>
-      </c>
-      <c r="C13" s="10">
-        <v>440.17</v>
-      </c>
-      <c r="D13">
-        <f>ABS(C13-(6.1511*B13+348.6))</f>
-        <v>640.41089999999986</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>23</v>
-      </c>
-      <c r="H13" s="10">
-        <v>55</v>
-      </c>
-      <c r="I13">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>126</v>
-      </c>
-      <c r="C14">
-        <v>1411.91</v>
-      </c>
-      <c r="D14">
-        <f>ABS(C14-(6.1511*B14+348.6))</f>
-        <v>288.27140000000009</v>
-      </c>
-      <c r="E14">
-        <v>18</v>
-      </c>
-      <c r="F14">
-        <v>21</v>
-      </c>
-      <c r="G14">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>63</v>
-      </c>
-      <c r="I14">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15">
-        <v>113</v>
-      </c>
-      <c r="C15">
-        <v>1183.1199999999999</v>
-      </c>
-      <c r="D15">
-        <f>ABS(C15-(6.1511*B15+348.6))</f>
-        <v>139.44569999999976</v>
-      </c>
-      <c r="E15">
-        <v>28</v>
-      </c>
-      <c r="F15">
-        <v>24</v>
-      </c>
-      <c r="G15">
-        <v>19</v>
-      </c>
-      <c r="H15">
-        <v>71</v>
-      </c>
-      <c r="I15">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>91</v>
-      </c>
-      <c r="C16">
-        <v>641.14</v>
-      </c>
-      <c r="D16">
-        <f>ABS(C16-(6.1511*B16+348.6))</f>
-        <v>267.21010000000001</v>
-      </c>
-      <c r="E16">
-        <v>21</v>
-      </c>
-      <c r="F16">
-        <v>16</v>
-      </c>
-      <c r="G16">
-        <v>14</v>
-      </c>
-      <c r="H16">
-        <v>51</v>
-      </c>
-      <c r="I16">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>120</v>
-      </c>
-      <c r="C17">
-        <v>1127.92</v>
-      </c>
-      <c r="D17">
-        <f>ABS(C17-(6.1511*B17+348.6))</f>
-        <v>41.188000000000102</v>
-      </c>
-      <c r="E17">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>18</v>
-      </c>
-      <c r="G17">
-        <v>26</v>
-      </c>
-      <c r="H17">
-        <v>56</v>
-      </c>
-      <c r="I17">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18">
-        <v>95</v>
-      </c>
-      <c r="C18">
-        <v>803.62</v>
-      </c>
-      <c r="D18">
-        <f>ABS(C18-(6.1511*B18+348.6))</f>
-        <v>129.33449999999993</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>18</v>
-      </c>
-      <c r="H18">
-        <v>47</v>
-      </c>
-      <c r="I18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19">
-        <v>93</v>
-      </c>
-      <c r="C19">
-        <v>939.92</v>
-      </c>
-      <c r="D19">
-        <f>ABS(C19-(6.1511*B19+348.6))</f>
-        <v>19.267699999999991</v>
-      </c>
-      <c r="E19">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <v>42</v>
-      </c>
-      <c r="I19">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20">
-        <v>77</v>
-      </c>
-      <c r="C20">
-        <v>771.81</v>
-      </c>
-      <c r="D20">
-        <f>ABS(C20-(6.1511*B20+348.6))</f>
-        <v>50.42470000000003</v>
-      </c>
-      <c r="E20">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <v>16</v>
-      </c>
-      <c r="G20">
-        <v>17</v>
-      </c>
-      <c r="H20">
-        <v>47</v>
-      </c>
-      <c r="I20">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21">
-        <v>139</v>
-      </c>
-      <c r="C21">
-        <v>1266.79</v>
-      </c>
-      <c r="D21">
-        <f>ABS(C21-(6.1511*B21+348.6))</f>
-        <v>63.1871000000001</v>
-      </c>
-      <c r="E21">
-        <v>24</v>
-      </c>
-      <c r="F21">
-        <v>25</v>
-      </c>
-      <c r="G21">
-        <v>22</v>
-      </c>
-      <c r="H21">
-        <v>71</v>
-      </c>
-      <c r="I21">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22">
-        <v>85</v>
-      </c>
-      <c r="C22">
-        <v>828.46</v>
-      </c>
-      <c r="D22">
-        <f>ABS(C22-(6.1511*B22+348.6))</f>
-        <v>42.983499999999935</v>
-      </c>
-      <c r="E22">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>14</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <v>37</v>
-      </c>
-      <c r="I22">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
-        <v>123</v>
-      </c>
-      <c r="C23">
-        <v>1250.0999999999999</v>
-      </c>
-      <c r="D23">
-        <f>ABS(C23-(6.1511*B23+348.6))</f>
-        <v>144.91469999999981</v>
-      </c>
-      <c r="E23">
-        <v>21</v>
-      </c>
-      <c r="F23">
-        <v>23</v>
-      </c>
-      <c r="G23">
-        <v>14</v>
-      </c>
-      <c r="H23">
-        <v>58</v>
-      </c>
-      <c r="I23">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24">
-        <v>104</v>
-      </c>
-      <c r="C24">
-        <v>757.59</v>
-      </c>
-      <c r="D24">
-        <f>ABS(C24-(6.1511*B24+348.6))</f>
-        <v>230.72439999999995</v>
-      </c>
-      <c r="E24">
-        <v>21</v>
-      </c>
-      <c r="F24">
-        <v>22</v>
-      </c>
-      <c r="G24">
-        <v>20</v>
-      </c>
-      <c r="H24">
-        <v>63</v>
-      </c>
-      <c r="I24">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="11">
-        <v>104</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1394.13</v>
-      </c>
-      <c r="D25">
-        <f>ABS(C25-(6.1511*B25+348.6))</f>
-        <v>405.81560000000013</v>
-      </c>
-      <c r="E25">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25" s="11">
-        <v>37</v>
-      </c>
-      <c r="I25">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26">
-        <v>137</v>
-      </c>
-      <c r="C26">
-        <v>1333.71</v>
-      </c>
-      <c r="D26">
-        <f>ABS(C26-(6.1511*B26+348.6))</f>
-        <v>142.40930000000003</v>
-      </c>
-      <c r="E26">
-        <v>17</v>
-      </c>
-      <c r="F26">
-        <v>22</v>
-      </c>
-      <c r="G26">
-        <v>15</v>
-      </c>
-      <c r="H26">
-        <v>54</v>
-      </c>
-      <c r="I26">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27">
-        <v>132</v>
-      </c>
-      <c r="C27">
-        <v>1200.1400000000001</v>
       </c>
       <c r="D27">
         <f>ABS(C27-(6.1511*B27+348.6))</f>
-        <v>39.594800000000077</v>
+        <v>237.73230000000001</v>
       </c>
       <c r="E27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27">
-        <v>68</v>
+        <f>SUM(E27:G27)</f>
+        <v>77</v>
       </c>
       <c r="I27">
-        <v>0.2</v>
+        <v>0.19</v>
+      </c>
+      <c r="J27">
+        <v>0.66</v>
+      </c>
+      <c r="K27">
+        <v>0.18</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0.36</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28">
-        <v>1276.5</v>
+        <v>952.27</v>
       </c>
       <c r="D28">
         <f>ABS(C28-(6.1511*B28+348.6))</f>
-        <v>232.82569999999987</v>
+        <v>85.253200000000106</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H28">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I28">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
